--- a/CSE 300/StudentTrackingAssignments.xlsx
+++ b/CSE 300/StudentTrackingAssignments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alejo\Desktop\BYUI\CSE 300\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alejo\Desktop\FAMILIA\Alejo\TECH\developments\PERSONAL DEVELOPMENTS\Machine-learning-projects\CSE 300\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB7C311-BBC5-4A6E-9E43-1F49EE309A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5E9045-4F07-464D-A398-DA075184081E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="875" activeTab="4" xr2:uid="{07D90E1F-7C1C-A043-A0EA-0FD351459508}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="875" activeTab="6" xr2:uid="{07D90E1F-7C1C-A043-A0EA-0FD351459508}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">A0_Plan!$A$1:$R$68</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">A1_Status!$A$1:$H$51</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">A2_Status!$A$1:$H$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">A1_Status!$C$1:$H$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">A2_Status!$B$1:$H$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">A3_Status!$A$1:$H$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">A4_Status!$A$1:$H$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">A5_Status!$A$1:$H$51</definedName>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="331">
   <si>
     <t>Issues</t>
   </si>
@@ -1159,6 +1159,93 @@
   <si>
     <t>42_A4_test 4</t>
   </si>
+  <si>
+    <t>https://github.com/AlejoAlegreBustos/Machine-learning-projects/blob/main/CSE%20300/StudentTrackingAssignments.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/AlejoAlegreBustos/Machine-learning-projects/blob/main/CSE%20300/Alejo%20Alegre%20Bustos%20-%20Resume.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/AlejoAlegreBustos/Machine-learning-projects/blob/main/CSE%20300/speach-elevetaro.docx</t>
+  </si>
+  <si>
+    <t>https://byui.joinhandshake.com/profiles/fbc2a9</t>
+  </si>
+  <si>
+    <t>from my perspective, the best to do first is an introspection about our life, to see which jar is full or not in our life(health, work, play, happiness, and love). We can start working from there, after that, it depends on us, our lifestyle, and long-term goals. i think one of the best things we can do is to set priorities in these four sections and build from there.</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Planning my schedule help me to work by pieces a many things, I think it’s a great way to learn in deep a specific subject</t>
+  </si>
+  <si>
+    <t>I met with a Professor this week to chek my resume and he pointed many things that were in my resume but with some adjustments make a better impact</t>
+  </si>
+  <si>
+    <t>It gave me a picture of how to choose the right priorities for the life that I want to live</t>
+  </si>
+  <si>
+    <t>It help me to briefly introduce my self to a strenger without doubts or time thinking about what I do</t>
+  </si>
+  <si>
+    <t>I learned how to organize my resume</t>
+  </si>
+  <si>
+    <t>It was a great chapter, it's really great to already have a compas that govern every other aspects in my life. I think the gospel of Jesus-Christ is the best compas we can have in our life, from there we can start thinking about working and what impact we can let it have in our life.</t>
+  </si>
+  <si>
+    <t>Connect with people: Networking</t>
+  </si>
+  <si>
+    <t>Identify requirements to fill</t>
+  </si>
+  <si>
+    <t>https://ces.peoplegrove.com/profile/alejoalegrebustos/</t>
+  </si>
+  <si>
+    <t>https://app.joinhandshake.com/stu/appointments/16395626</t>
+  </si>
+  <si>
+    <t>This chapter is all about tracking your days to notice what actually gives you energy and makes you feel alive. For a few weeks, you write down what you do, how much energy you had, and how engaged you felt during each activity. The point is to catch the moments when time flies, when you’re fully into something, or when you feel drained. Once you look back at your notes, patterns start to show—things you really enjoy, the settings where you thrive, the kind of work or interactions that light you up. It’s not about what you think you “should” like, but about what your own experience is telling you.</t>
+  </si>
+  <si>
+    <t>I think is a great resource to understand your chances to get a job by traditional ways</t>
+  </si>
+  <si>
+    <t>It  a great place to know connect with people that is currently working, they are really kind and always willing to give you tips and feedback</t>
+  </si>
+  <si>
+    <t>great book chapter, I never thought about a good times journar, but it makes sense if you want to really enjoy something that you are going to do for 50 years like work</t>
+  </si>
+  <si>
+    <t>still working on this</t>
+  </si>
+  <si>
+    <t>I never heard about it before, it is a great way to know what a company offers, the enviroment, what they propose to the employee. Also, to understan what I need to know and to do for some day work there</t>
+  </si>
+  <si>
+    <t>After you spot the paterns tought in chapter 3, the next step is to open up possibilities with a mind map. You start with a word or idea from your journal maybe something like “teaching”,“outdoors” or “design.” Put it in the center of a page and let your thoughts branch out. Write down anything that comes to mind, no matter how random. Then branch those ideas again and see where they lead. The goal is to break out of straight line thinking and discover connections or paths you wouldn’t see otherwise.</t>
+  </si>
+  <si>
+    <t>the idea to draw your thoughts and ideas in a paper is always good, even if it's not for a work decision, it will help to vizualize your goals</t>
+  </si>
+  <si>
+    <t>short time for informational interviews</t>
+  </si>
+  <si>
+    <t>Great way to present myself, even to my own family, now I am not loosing time thinking for a good answer for that</t>
+  </si>
+  <si>
+    <t>It was a great way to understand where and in what position I want to work, it gave me a better understanding about the diferencies between work positions in companies</t>
+  </si>
+  <si>
+    <t>It was great to think how my skills and experiences could be a good fit for the positions I am applying for, it truly is the breach between the application requirements and my resume</t>
+  </si>
+  <si>
+    <t>It helps me to have something to show to someone when they aske me about my academic experience and work experience</t>
+  </si>
 </sst>
 </file>
 
@@ -1168,7 +1255,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1291,6 +1378,14 @@
       <sz val="26"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1503,10 +1598,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1584,6 +1680,25 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1638,8 +1753,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
@@ -3221,24 +3346,24 @@
       <c r="A2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="60" t="s">
         <v>250</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
     </row>
     <row r="3" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
     </row>
     <row r="5" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
@@ -3303,7 +3428,7 @@
       </c>
       <c r="C8" s="15">
         <f>Backlog!G3</f>
-        <v>0.61538461538461542</v>
+        <v>0.74358974358974361</v>
       </c>
       <c r="D8">
         <f>SUM(A0_Plan!H15:H69)</f>
@@ -3332,7 +3457,7 @@
       </c>
       <c r="H10" s="37">
         <f>Backlog!H37</f>
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.5">
@@ -3417,11 +3542,11 @@
       </c>
       <c r="D15">
         <f>A2_Status!G18</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E15" s="39">
         <f>A2_Status!G19</f>
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G15" s="33" t="s">
         <v>178</v>
@@ -3457,11 +3582,11 @@
       </c>
       <c r="D16">
         <f>A3_Status!G18</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="E16" s="39">
         <f>A3_Status!G19</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.5</v>
       </c>
       <c r="G16" s="33" t="s">
         <v>185</v>
@@ -3705,14 +3830,14 @@
       </c>
     </row>
     <row r="4" spans="2:13" ht="48" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
@@ -3724,14 +3849,14 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="79.05" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
@@ -3836,7 +3961,7 @@
       </c>
       <c r="D15" t="str">
         <f>IF(ISBLANK(A0_Plan!E57),"",A0_Plan!E57)</f>
-        <v>14_S9_Informational Interview 4</v>
+        <v>4_B4_Interviewing: VMOCK</v>
       </c>
       <c r="E15" t="str">
         <f>IF(ISBLANK(A0_Plan!F57),"",A0_Plan!F57)</f>
@@ -3992,32 +4117,32 @@
       </c>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="D30" s="62"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="64"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="71"/>
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="D31" s="65"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="67"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="74"/>
     </row>
     <row r="32" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="D32" s="65"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="67"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="74"/>
     </row>
     <row r="33" spans="2:13" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D33" s="68"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="70"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="77"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B34" s="1" t="s">
@@ -4030,14 +4155,14 @@
       </c>
     </row>
     <row r="36" spans="2:13" ht="154.05000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C36" s="53" t="s">
+      <c r="C36" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
       <c r="J36" s="20"/>
       <c r="K36" s="20"/>
       <c r="L36" s="20"/>
@@ -4061,10 +4186,10 @@
         <f>IF(ISBLANK(A0_Plan!E13),"",A0_Plan!E13)</f>
         <v>0_PP1_Planning Schedule</v>
       </c>
-      <c r="E38" s="59"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="61"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="68"/>
     </row>
     <row r="39" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C39" t="s">
@@ -4074,10 +4199,10 @@
         <f>IF(ISBLANK(A0_Plan!E14),"",A0_Plan!E14)</f>
         <v>17_P2_Resume</v>
       </c>
-      <c r="E39" s="59"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="61"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="68"/>
     </row>
     <row r="40" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C40" t="s">
@@ -4105,10 +4230,10 @@
         <f>IF(ISBLANK(A0_Plan!E17),"",A0_Plan!E17)</f>
         <v>5_B5_Elevator Pitch: 5 Sentences</v>
       </c>
-      <c r="E42" s="59"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="61"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="68"/>
     </row>
     <row r="43" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C43" t="s">
@@ -4142,14 +4267,14 @@
       </c>
     </row>
     <row r="47" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C47" s="53" t="s">
+      <c r="C47" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
       <c r="J47" s="20"/>
       <c r="K47" s="20"/>
       <c r="L47" s="20"/>
@@ -4173,31 +4298,31 @@
       <c r="C49" t="s">
         <v>120</v>
       </c>
-      <c r="D49" s="59"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="60"/>
-      <c r="H49" s="61"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="68"/>
     </row>
     <row r="50" spans="3:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C50" t="s">
         <v>121</v>
       </c>
-      <c r="D50" s="59"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="61"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="68"/>
     </row>
     <row r="51" spans="3:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C51" t="s">
         <v>122</v>
       </c>
-      <c r="D51" s="59"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="61"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="68"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -4273,14 +4398,14 @@
       </c>
     </row>
     <row r="4" spans="2:13" ht="48" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
@@ -4292,14 +4417,14 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="79.05" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
@@ -4543,32 +4668,32 @@
       </c>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="D30" s="62"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="64"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="71"/>
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="D31" s="65"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="67"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="74"/>
     </row>
     <row r="32" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="D32" s="65"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="67"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="74"/>
     </row>
     <row r="33" spans="2:13" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D33" s="68"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="70"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="77"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B34" s="1" t="s">
@@ -4581,14 +4706,14 @@
       </c>
     </row>
     <row r="36" spans="2:13" ht="154.05000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C36" s="53" t="s">
+      <c r="C36" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
       <c r="J36" s="20"/>
       <c r="K36" s="20"/>
       <c r="L36" s="20"/>
@@ -4612,10 +4737,10 @@
         <f>IF(ISBLANK(A0_Plan!E13),"",A0_Plan!E13)</f>
         <v>0_PP1_Planning Schedule</v>
       </c>
-      <c r="E38" s="59"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="61"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="68"/>
     </row>
     <row r="39" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C39" t="s">
@@ -4625,10 +4750,10 @@
         <f>IF(ISBLANK(A0_Plan!E14),"",A0_Plan!E14)</f>
         <v>17_P2_Resume</v>
       </c>
-      <c r="E39" s="59"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="61"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="68"/>
     </row>
     <row r="40" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C40" t="s">
@@ -4656,10 +4781,10 @@
         <f>IF(ISBLANK(A0_Plan!E17),"",A0_Plan!E17)</f>
         <v>5_B5_Elevator Pitch: 5 Sentences</v>
       </c>
-      <c r="E42" s="59"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="61"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="68"/>
     </row>
     <row r="43" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C43" t="s">
@@ -4693,14 +4818,14 @@
       </c>
     </row>
     <row r="47" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C47" s="53" t="s">
+      <c r="C47" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
       <c r="J47" s="20"/>
       <c r="K47" s="20"/>
       <c r="L47" s="20"/>
@@ -4724,31 +4849,31 @@
       <c r="C49" t="s">
         <v>120</v>
       </c>
-      <c r="D49" s="59"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="60"/>
-      <c r="H49" s="61"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="68"/>
     </row>
     <row r="50" spans="3:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C50" t="s">
         <v>121</v>
       </c>
-      <c r="D50" s="59"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="61"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="68"/>
     </row>
     <row r="51" spans="3:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C51" t="s">
         <v>122</v>
       </c>
-      <c r="D51" s="59"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="61"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="68"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -4784,8 +4909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF4E04A-3444-4DB1-A52C-A22CAC5E6E2C}">
   <dimension ref="B3:H68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:H3"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -4798,12 +4923,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="34.15" x14ac:dyDescent="1.05">
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="61" t="s">
         <v>247</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.5">
       <c r="E4" t="s">
@@ -5535,7 +5660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57450B6-C1DE-D447-9C44-3E1497786FC5}">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -5555,15 +5680,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="31.9" x14ac:dyDescent="1">
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="62" t="s">
         <v>248</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.65">
       <c r="A2" s="2" t="s">
@@ -5599,7 +5724,7 @@
       </c>
       <c r="G3" s="15">
         <f>AVERAGEA(G4:G47)</f>
-        <v>0.61538461538461542</v>
+        <v>0.74358974358974361</v>
       </c>
       <c r="I3" s="15"/>
       <c r="K3" s="15"/>
@@ -6619,7 +6744,7 @@
       <c r="F37" s="3"/>
       <c r="H37" s="37">
         <f>AVERAGEA(G38:G47)</f>
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.5">
@@ -6676,9 +6801,9 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G39" s="6" t="str">
+      <c r="G39" s="6">
         <f>IF(VLOOKUP(D39,A0_Plan!$E$13:$K$67,5,1)="Done", 1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H39" s="6"/>
       <c r="J39" s="6"/>
@@ -6708,9 +6833,9 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G40" s="6" t="str">
+      <c r="G40" s="6">
         <f>IF(VLOOKUP(D40,A0_Plan!$E$13:$K$67,5,1)="Done", 1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H40" s="6"/>
       <c r="J40" s="6"/>
@@ -6740,9 +6865,9 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G41" s="6" t="str">
+      <c r="G41" s="6">
         <f>IF(VLOOKUP(D41,A0_Plan!$E$13:$K$67,5,1)="Done", 1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H41" s="6"/>
       <c r="J41" s="6"/>
@@ -6772,9 +6897,9 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G42" s="6" t="str">
+      <c r="G42" s="6">
         <f>IF(VLOOKUP(D42,A0_Plan!$E$13:$K$67,5,1)="Done", 1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H42" s="6"/>
       <c r="J42" s="6"/>
@@ -6804,9 +6929,9 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G43" s="6" t="str">
+      <c r="G43" s="6">
         <f>IF(VLOOKUP(D43,A0_Plan!$E$13:$K$67,5,1)="Done", 1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H43" s="6"/>
       <c r="J43" s="6"/>
@@ -7074,8 +7199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E5406B-F50C-854D-9060-592EBAE21E85}">
   <dimension ref="B1:Q68"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:F14"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A61" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O58" sqref="O58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -7138,16 +7263,16 @@
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
       <c r="M4" s="8">
         <v>1</v>
       </c>
@@ -7168,16 +7293,16 @@
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="63" t="s">
         <v>252</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
       <c r="M5" s="8">
         <v>2</v>
       </c>
@@ -7198,12 +7323,12 @@
       <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="63" t="s">
         <v>251</v>
       </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="M6" s="8">
         <v>3</v>
       </c>
@@ -7224,12 +7349,12 @@
       <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="63" t="s">
         <v>253</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
       <c r="M7" s="8">
         <v>5</v>
       </c>
@@ -7355,7 +7480,7 @@
       </c>
       <c r="K13" t="str">
         <f>IF(A1_Status!H11=0, "Missing", A1_Status!H11)</f>
-        <v>Missing</v>
+        <v>https://github.com/AlejoAlegreBustos/Machine-learning-projects/blob/main/CSE%20300/StudentTrackingAssignments.xlsx</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.5">
@@ -7387,9 +7512,9 @@
         <f>A1_Status!G12</f>
         <v>0.5</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="str">
         <f>A1_Status!H12</f>
-        <v>0</v>
+        <v>https://github.com/AlejoAlegreBustos/Machine-learning-projects/blob/main/CSE%20300/Alejo%20Alegre%20Bustos%20-%20Resume.pdf</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.5">
@@ -7419,9 +7544,9 @@
         <f>A1_Status!G13</f>
         <v>0.5</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="str">
         <f>A1_Status!H13</f>
-        <v>0</v>
+        <v>from my perspective, the best to do first is an introspection about our life, to see which jar is full or not in our life(health, work, play, happiness, and love). We can start working from there, after that, it depends on us, our lifestyle, and long-term goals. i think one of the best things we can do is to set priorities in these four sections and build from there.</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.5">
@@ -7454,9 +7579,9 @@
         <f>A1_Status!G15</f>
         <v>0.5</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="str">
         <f>A1_Status!H15</f>
-        <v>0</v>
+        <v>https://github.com/AlejoAlegreBustos/Machine-learning-projects/blob/main/CSE%20300/speach-elevetaro.docx</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.5">
@@ -7486,9 +7611,9 @@
         <f>A1_Status!G16</f>
         <v>0.5</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="str">
         <f>A1_Status!H16</f>
-        <v>0</v>
+        <v>It was a great chapter, it's really great to already have a compas that govern every other aspects in my life. I think the gospel of Jesus-Christ is the best compas we can have in our life, from there we can start thinking about working and what impact we can let it have in our life.</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.5">
@@ -7518,9 +7643,9 @@
         <f>A1_Status!G17</f>
         <v>0.5</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="str">
         <f>A1_Status!H17</f>
-        <v>0</v>
+        <v>https://byui.joinhandshake.com/profiles/fbc2a9</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.5">
@@ -7559,9 +7684,9 @@
         <f>A2_Status!G11</f>
         <v>0.5</v>
       </c>
-      <c r="K21">
+      <c r="K21" t="str">
         <f>A2_Status!H11</f>
-        <v>0</v>
+        <v>https://app.joinhandshake.com/stu/appointments/16395626</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.5">
@@ -7591,9 +7716,9 @@
         <f>A2_Status!G12</f>
         <v>1</v>
       </c>
-      <c r="K22">
+      <c r="K22" t="str">
         <f>A2_Status!H12</f>
-        <v>0</v>
+        <v>https://ces.peoplegrove.com/profile/alejoalegrebustos/</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.5">
@@ -7615,17 +7740,17 @@
         <f>IF(F23&gt;0, 1,0)</f>
         <v>0</v>
       </c>
-      <c r="I23">
+      <c r="I23" t="str">
         <f>A2_Status!F13</f>
-        <v>0</v>
+        <v>Done</v>
       </c>
       <c r="J23">
         <f>A2_Status!G13</f>
-        <v>0</v>
-      </c>
-      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="str">
         <f>A2_Status!H13</f>
-        <v>0</v>
+        <v>This chapter is all about tracking your days to notice what actually gives you energy and makes you feel alive. For a few weeks, you write down what you do, how much energy you had, and how engaged you felt during each activity. The point is to catch the moments when time flies, when you’re fully into something, or when you feel drained. Once you look back at your notes, patterns start to show—things you really enjoy, the settings where you thrive, the kind of work or interactions that light you up. It’s not about what you think you “should” like, but about what your own experience is telling you.</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.5">
@@ -7647,9 +7772,9 @@
         <f>IF(F25&gt;0, 1,0)</f>
         <v>0</v>
       </c>
-      <c r="I25">
+      <c r="I25" t="str">
         <f>A2_Status!F15</f>
-        <v>0</v>
+        <v>Working</v>
       </c>
       <c r="J25">
         <f>A2_Status!G15</f>
@@ -7687,9 +7812,9 @@
         <f>A2_Status!G16</f>
         <v>0.5</v>
       </c>
-      <c r="K26">
+      <c r="K26" t="str">
         <f>A2_Status!H16</f>
-        <v>0</v>
+        <v>https://app.joinhandshake.com/stu/appointments/16395626</v>
       </c>
       <c r="N26" s="5"/>
     </row>
@@ -7712,17 +7837,17 @@
         <f>IF(F27&gt;0, 1,0)</f>
         <v>0</v>
       </c>
-      <c r="I27">
+      <c r="I27" t="str">
         <f>A2_Status!F17</f>
-        <v>0</v>
+        <v>Done</v>
       </c>
       <c r="J27">
         <f>A2_Status!G17</f>
-        <v>0</v>
-      </c>
-      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="K27" t="str">
         <f>A2_Status!H17</f>
-        <v>0</v>
+        <v>After you spot the paterns tought in chapter 3, the next step is to open up possibilities with a mind map. You start with a word or idea from your journal maybe something like “teaching”,“outdoors” or “design.” Put it in the center of a page and let your thoughts branch out. Write down anything that comes to mind, no matter how random. Then branch those ideas again and see where they lead. The goal is to break out of straight line thinking and discover connections or paths you wouldn’t see otherwise.</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.5">
@@ -7753,13 +7878,13 @@
         <f>IF(F29&gt;0, 1,0)</f>
         <v>0</v>
       </c>
-      <c r="I29">
+      <c r="I29" t="str">
         <f>A3_Status!F11</f>
-        <v>0</v>
+        <v>Done</v>
       </c>
       <c r="J29">
         <f>A3_Status!G11</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K29">
         <f>A3_Status!H11</f>
@@ -7774,7 +7899,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" t="str">
@@ -7785,13 +7910,13 @@
         <f>IF(F30&gt;0, 1,0)</f>
         <v>0</v>
       </c>
-      <c r="I30">
+      <c r="I30" t="str">
         <f>A3_Status!F12</f>
-        <v>0</v>
+        <v>Done</v>
       </c>
       <c r="J30">
         <f>A3_Status!G12</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K30">
         <f>A3_Status!H12</f>
@@ -7870,7 +7995,7 @@
         <v>2</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" t="str">
@@ -7881,13 +8006,13 @@
         <f>IF(F34&gt;0, 1,0)</f>
         <v>0</v>
       </c>
-      <c r="I34">
+      <c r="I34" t="str">
         <f>A3_Status!F16</f>
-        <v>0</v>
+        <v>Done</v>
       </c>
       <c r="J34">
         <f>A3_Status!G16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34">
         <f>A3_Status!H16</f>
@@ -7902,7 +8027,7 @@
         <v>3</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" t="str">
@@ -7913,13 +8038,13 @@
         <f>IF(F35&gt;0, 1,0)</f>
         <v>0</v>
       </c>
-      <c r="I35">
+      <c r="I35" t="str">
         <f>A3_Status!F17</f>
-        <v>0</v>
+        <v>Done</v>
       </c>
       <c r="J35">
         <f>A3_Status!G17</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K35">
         <f>A3_Status!H17</f>
@@ -8208,7 +8333,7 @@
         <v>3</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" t="str">
@@ -8272,7 +8397,7 @@
         <v>2</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" t="str">
@@ -8441,7 +8566,7 @@
         <v>1</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" t="str">
@@ -8768,8 +8893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FD177B-405B-AB4F-9E6E-F065EEFB6CF8}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49:H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -8808,14 +8933,14 @@
       </c>
     </row>
     <row r="4" spans="2:13" ht="48" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
@@ -8827,14 +8952,14 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="79.05" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
@@ -8870,7 +8995,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:13" ht="63" x14ac:dyDescent="0.5">
       <c r="C11">
         <v>1</v>
       </c>
@@ -8888,9 +9013,11 @@
       <c r="G11" s="7">
         <v>0.5</v>
       </c>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.5">
+      <c r="H11" s="53" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="63" x14ac:dyDescent="0.5">
       <c r="C12">
         <v>2</v>
       </c>
@@ -8908,9 +9035,11 @@
       <c r="G12" s="7">
         <v>0.5</v>
       </c>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.5">
+      <c r="H12" s="53" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="126" x14ac:dyDescent="0.5">
       <c r="C13">
         <v>3</v>
       </c>
@@ -8928,7 +9057,9 @@
       <c r="G13" s="7">
         <v>0.5</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="53" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.5">
       <c r="C14" t="s">
@@ -8945,7 +9076,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:13" ht="63" x14ac:dyDescent="0.5">
       <c r="C15">
         <v>1</v>
       </c>
@@ -8963,9 +9094,11 @@
       <c r="G15" s="7">
         <v>0.5</v>
       </c>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.5">
+      <c r="H15" s="53" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="94.5" x14ac:dyDescent="0.5">
       <c r="C16">
         <v>2</v>
       </c>
@@ -8983,7 +9116,9 @@
       <c r="G16" s="7">
         <v>0.5</v>
       </c>
-      <c r="H16" s="7"/>
+      <c r="H16" s="53" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.5">
       <c r="C17">
@@ -9003,7 +9138,9 @@
       <c r="G17" s="7">
         <v>0.5</v>
       </c>
-      <c r="H17" s="7"/>
+      <c r="H17" s="54" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.5">
       <c r="D18" s="27" t="s">
@@ -9119,32 +9256,34 @@
       </c>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="D30" s="62"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="64"/>
+      <c r="D30" s="69" t="s">
+        <v>307</v>
+      </c>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="71"/>
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="D31" s="65"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="67"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="74"/>
     </row>
     <row r="32" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="D32" s="65"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="67"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="74"/>
     </row>
     <row r="33" spans="2:13" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D33" s="68"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="70"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="77"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B34" s="1" t="s">
@@ -9157,14 +9296,14 @@
       </c>
     </row>
     <row r="36" spans="2:13" ht="154.05000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C36" s="53" t="s">
+      <c r="C36" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
       <c r="J36" s="20"/>
       <c r="K36" s="20"/>
       <c r="L36" s="20"/>
@@ -9188,10 +9327,12 @@
         <f>IF(ISBLANK(A0_Plan!E13),"",A0_Plan!E13)</f>
         <v>0_PP1_Planning Schedule</v>
       </c>
-      <c r="E38" s="59"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="61"/>
+      <c r="E38" s="66" t="s">
+        <v>308</v>
+      </c>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="68"/>
     </row>
     <row r="39" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C39" t="s">
@@ -9201,10 +9342,12 @@
         <f>IF(ISBLANK(A0_Plan!E14),"",A0_Plan!E14)</f>
         <v>17_P2_Resume</v>
       </c>
-      <c r="E39" s="59"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="61"/>
+      <c r="E39" s="66" t="s">
+        <v>309</v>
+      </c>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="68"/>
     </row>
     <row r="40" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C40" t="s">
@@ -9214,10 +9357,12 @@
         <f>IF(ISBLANK(A0_Plan!E15),"",A0_Plan!E15)</f>
         <v>31_D3_Design Your Life: Chap 1: Health, Work, Play, &amp; Love</v>
       </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="26"/>
+      <c r="E40" s="66" t="s">
+        <v>310</v>
+      </c>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="68"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.5">
       <c r="D41" s="1" t="s">
@@ -9232,10 +9377,12 @@
         <f>IF(ISBLANK(A0_Plan!E17),"",A0_Plan!E17)</f>
         <v>5_B5_Elevator Pitch: 5 Sentences</v>
       </c>
-      <c r="E42" s="59"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="61"/>
+      <c r="E42" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="68"/>
     </row>
     <row r="43" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C43" t="s">
@@ -9245,10 +9392,10 @@
         <f>IF(ISBLANK(A0_Plan!E18),"",A0_Plan!E18)</f>
         <v>32_D4_Design Your Life: Chap 2: Work/Life view/compass</v>
       </c>
-      <c r="E43" s="21"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="23"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="68"/>
     </row>
     <row r="44" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C44" t="s">
@@ -9258,10 +9405,12 @@
         <f>IF(ISBLANK(A0_Plan!E19),"",A0_Plan!E19)</f>
         <v>9_S4_Completed 100% Handshake Profile</v>
       </c>
-      <c r="E44" s="21"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="23"/>
+      <c r="E44" s="66" t="s">
+        <v>312</v>
+      </c>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="68"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B46" s="5" t="s">
@@ -9269,14 +9418,14 @@
       </c>
     </row>
     <row r="47" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C47" s="53" t="s">
+      <c r="C47" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
       <c r="J47" s="20"/>
       <c r="K47" s="20"/>
       <c r="L47" s="20"/>
@@ -9300,56 +9449,68 @@
       <c r="C49" t="s">
         <v>120</v>
       </c>
-      <c r="D49" s="59"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="60"/>
-      <c r="H49" s="61"/>
+      <c r="D49" s="66" t="s">
+        <v>314</v>
+      </c>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="68"/>
     </row>
     <row r="50" spans="3:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C50" t="s">
         <v>121</v>
       </c>
-      <c r="D50" s="59"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="61"/>
+      <c r="D50" s="66" t="s">
+        <v>315</v>
+      </c>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="68"/>
     </row>
     <row r="51" spans="3:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C51" t="s">
         <v>122</v>
       </c>
-      <c r="D51" s="59"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="61"/>
+      <c r="D51" s="66" t="s">
+        <v>315</v>
+      </c>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="68"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="F11:H13" name="Week 1 Day Status"/>
   </protectedRanges>
-  <mergeCells count="11">
+  <mergeCells count="14">
     <mergeCell ref="D51:H51"/>
     <mergeCell ref="D30:H33"/>
     <mergeCell ref="C47:H47"/>
     <mergeCell ref="E38:H38"/>
     <mergeCell ref="E39:H39"/>
     <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E43:H43"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="C36:H36"/>
     <mergeCell ref="D49:H49"/>
     <mergeCell ref="D50:H50"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F13 F15:F17" xr:uid="{F8BA5BF8-27F7-0145-ACE8-38CF1DEED6A9}">
       <formula1>$J$1:$J$3</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H17" r:id="rId1" xr:uid="{A9CD5296-ADA2-4093-AFE2-73A587EFD2FA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="52" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="52" orientation="portrait" r:id="rId2"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="8" max="50" man="1"/>
   </colBreaks>
@@ -9360,8 +9521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0960C3A-E59D-480B-888F-45205DBBA9E3}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A44" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49:H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -9400,14 +9561,14 @@
       </c>
     </row>
     <row r="4" spans="2:13" ht="48" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
@@ -9419,14 +9580,14 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="79.05" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
@@ -9480,7 +9641,9 @@
       <c r="G11" s="7">
         <v>0.5</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.5">
       <c r="C12">
@@ -9500,9 +9663,11 @@
       <c r="G12" s="7">
         <v>1</v>
       </c>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.5">
+      <c r="H12" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="204.75" x14ac:dyDescent="0.5">
       <c r="C13">
         <v>3</v>
       </c>
@@ -9514,9 +9679,15 @@
         <f>IF(ISBLANK(A0_Plan!F23),"",A0_Plan!F23)</f>
         <v/>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1</v>
+      </c>
+      <c r="H13" s="59" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.5">
       <c r="C14" t="s">
@@ -9545,7 +9716,9 @@
         <f>IF(ISBLANK(A0_Plan!F25),"",A0_Plan!F25)</f>
         <v/>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
@@ -9567,9 +9740,11 @@
       <c r="G16" s="7">
         <v>0.5</v>
       </c>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.5">
+      <c r="H16" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" ht="189" x14ac:dyDescent="0.5">
       <c r="C17">
         <v>3</v>
       </c>
@@ -9581,9 +9756,15 @@
         <f>IF(ISBLANK(A0_Plan!F27),"",A0_Plan!F27)</f>
         <v/>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="7">
+        <v>1</v>
+      </c>
+      <c r="H17" s="53" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.5">
       <c r="D18" s="27" t="s">
@@ -9596,7 +9777,7 @@
       <c r="F18" s="28"/>
       <c r="G18" s="28">
         <f>SUM(G11:G17)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.5">
@@ -9610,7 +9791,7 @@
       <c r="F19" s="28"/>
       <c r="G19" s="28">
         <f>G18/6</f>
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="21" x14ac:dyDescent="0.65">
@@ -9645,7 +9826,7 @@
       </c>
       <c r="D23" t="str">
         <f>IF(ISBLANK(A0_Plan!E30),"",A0_Plan!E30)</f>
-        <v>4_B4_Interviewing: VMOCK</v>
+        <v>14_S9_Informational Interview 4</v>
       </c>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.5">
@@ -9681,7 +9862,7 @@
       </c>
       <c r="D27" t="str">
         <f>IF(ISBLANK(A0_Plan!E34),"",A0_Plan!E34)</f>
-        <v>36_D8_The 2-Hour Job Search: Prioritization (Chap 1-4)</v>
+        <v>18_P3_Cover Letter Template</v>
       </c>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.5">
@@ -9690,7 +9871,7 @@
       </c>
       <c r="D28" t="str">
         <f>IF(ISBLANK(A0_Plan!E35),"",A0_Plan!E35)</f>
-        <v>16_P1_Photo</v>
+        <v>12_S7_Informational Interview 2</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="21.4" thickBot="1" x14ac:dyDescent="0.7">
@@ -9699,32 +9880,34 @@
       </c>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="D30" s="62"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="64"/>
+      <c r="D30" s="69" t="s">
+        <v>307</v>
+      </c>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="71"/>
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="D31" s="65"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="67"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="74"/>
     </row>
     <row r="32" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="D32" s="65"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="67"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="74"/>
     </row>
     <row r="33" spans="2:13" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D33" s="68"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="70"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="77"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B34" s="1" t="s">
@@ -9737,14 +9920,14 @@
       </c>
     </row>
     <row r="36" spans="2:13" ht="154.05000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C36" s="53" t="s">
+      <c r="C36" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
       <c r="J36" s="20"/>
       <c r="K36" s="20"/>
       <c r="L36" s="20"/>
@@ -9764,84 +9947,94 @@
       <c r="C38" t="s">
         <v>115</v>
       </c>
-      <c r="D38" t="str">
-        <f>IF(ISBLANK(A0_Plan!E13),"",A0_Plan!E13)</f>
-        <v>0_PP1_Planning Schedule</v>
-      </c>
-      <c r="E38" s="59"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="61"/>
+      <c r="D38" t="s">
+        <v>260</v>
+      </c>
+      <c r="E38" s="78" t="s">
+        <v>319</v>
+      </c>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="80"/>
     </row>
     <row r="39" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C39" t="s">
         <v>116</v>
       </c>
-      <c r="D39" t="str">
-        <f>IF(ISBLANK(A0_Plan!E14),"",A0_Plan!E14)</f>
-        <v>17_P2_Resume</v>
-      </c>
-      <c r="E39" s="59"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="61"/>
+      <c r="D39" t="s">
+        <v>267</v>
+      </c>
+      <c r="E39" s="78" t="s">
+        <v>320</v>
+      </c>
+      <c r="F39" s="79"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="80"/>
     </row>
     <row r="40" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C40" t="s">
         <v>117</v>
       </c>
-      <c r="D40" t="str">
-        <f>IF(ISBLANK(A0_Plan!E15),"",A0_Plan!E15)</f>
-        <v>31_D3_Design Your Life: Chap 1: Health, Work, Play, &amp; Love</v>
-      </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="26"/>
+      <c r="D40" t="s">
+        <v>285</v>
+      </c>
+      <c r="E40" s="78" t="s">
+        <v>321</v>
+      </c>
+      <c r="F40" s="79"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="80"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.5">
       <c r="D41" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
     </row>
     <row r="42" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C42" t="s">
         <v>172</v>
       </c>
-      <c r="D42" t="str">
-        <f>IF(ISBLANK(A0_Plan!E17),"",A0_Plan!E17)</f>
-        <v>5_B5_Elevator Pitch: 5 Sentences</v>
-      </c>
-      <c r="E42" s="59"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="61"/>
+      <c r="D42" t="s">
+        <v>269</v>
+      </c>
+      <c r="E42" s="55" t="s">
+        <v>322</v>
+      </c>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="57"/>
     </row>
     <row r="43" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C43" t="s">
         <v>173</v>
       </c>
-      <c r="D43" t="str">
-        <f>IF(ISBLANK(A0_Plan!E18),"",A0_Plan!E18)</f>
-        <v>32_D4_Design Your Life: Chap 2: Work/Life view/compass</v>
-      </c>
-      <c r="E43" s="21"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="23"/>
+      <c r="D43" t="s">
+        <v>270</v>
+      </c>
+      <c r="E43" s="78" t="s">
+        <v>323</v>
+      </c>
+      <c r="F43" s="79"/>
+      <c r="G43" s="79"/>
+      <c r="H43" s="80"/>
     </row>
     <row r="44" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C44" t="s">
         <v>174</v>
       </c>
-      <c r="D44" t="str">
-        <f>IF(ISBLANK(A0_Plan!E19),"",A0_Plan!E19)</f>
-        <v>9_S4_Completed 100% Handshake Profile</v>
-      </c>
-      <c r="E44" s="21"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="23"/>
+      <c r="D44" t="s">
+        <v>286</v>
+      </c>
+      <c r="E44" s="78" t="s">
+        <v>325</v>
+      </c>
+      <c r="F44" s="79"/>
+      <c r="G44" s="79"/>
+      <c r="H44" s="80"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B46" s="5" t="s">
@@ -9849,14 +10042,14 @@
       </c>
     </row>
     <row r="47" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C47" s="53" t="s">
+      <c r="C47" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
       <c r="J47" s="20"/>
       <c r="K47" s="20"/>
       <c r="L47" s="20"/>
@@ -9880,42 +10073,48 @@
       <c r="C49" t="s">
         <v>120</v>
       </c>
-      <c r="D49" s="59"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="60"/>
-      <c r="H49" s="61"/>
+      <c r="D49" s="66" t="s">
+        <v>314</v>
+      </c>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="68"/>
     </row>
     <row r="50" spans="3:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C50" t="s">
         <v>121</v>
       </c>
-      <c r="D50" s="59"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="61"/>
+      <c r="D50" s="66" t="s">
+        <v>315</v>
+      </c>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="68"/>
     </row>
     <row r="51" spans="3:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C51" t="s">
         <v>122</v>
       </c>
-      <c r="D51" s="59"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="61"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="68"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="F11:H13" name="Week 1 Day Status"/>
   </protectedRanges>
-  <mergeCells count="11">
-    <mergeCell ref="E42:H42"/>
+  <mergeCells count="13">
     <mergeCell ref="C47:H47"/>
     <mergeCell ref="D49:H49"/>
     <mergeCell ref="D50:H50"/>
     <mergeCell ref="D51:H51"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E40:H40"/>
     <mergeCell ref="E39:H39"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C6:H6"/>
@@ -9929,7 +10128,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="52" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="5" scale="52" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="8" max="50" man="1"/>
   </colBreaks>
@@ -9940,8 +10139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0840D4BE-EDCF-462B-B546-E2FDF8909DFF}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -9980,14 +10179,14 @@
       </c>
     </row>
     <row r="4" spans="2:13" ht="48" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
@@ -9999,14 +10198,14 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="79.05" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
@@ -10054,8 +10253,12 @@
         <f>IF(ISBLANK(A0_Plan!F29),"",A0_Plan!F29)</f>
         <v/>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.5">
@@ -10064,14 +10267,18 @@
       </c>
       <c r="D12" t="str">
         <f>IF(ISBLANK(A0_Plan!E30),"",A0_Plan!E30)</f>
-        <v>4_B4_Interviewing: VMOCK</v>
+        <v>14_S9_Informational Interview 4</v>
       </c>
       <c r="E12" t="str">
         <f>IF(ISBLANK(A0_Plan!F30),"",A0_Plan!F30)</f>
         <v/>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.5">
@@ -10131,14 +10338,18 @@
       </c>
       <c r="D16" t="str">
         <f>IF(ISBLANK(A0_Plan!E34),"",A0_Plan!E34)</f>
-        <v>36_D8_The 2-Hour Job Search: Prioritization (Chap 1-4)</v>
+        <v>18_P3_Cover Letter Template</v>
       </c>
       <c r="E16" t="str">
         <f>IF(ISBLANK(A0_Plan!F34),"",A0_Plan!F34)</f>
         <v/>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1</v>
+      </c>
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.5">
@@ -10147,14 +10358,18 @@
       </c>
       <c r="D17" t="str">
         <f>IF(ISBLANK(A0_Plan!E35),"",A0_Plan!E35)</f>
-        <v>16_P1_Photo</v>
+        <v>12_S7_Informational Interview 2</v>
       </c>
       <c r="E17" t="str">
         <f>IF(ISBLANK(A0_Plan!F35),"",A0_Plan!F35)</f>
         <v/>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.5">
@@ -10168,7 +10383,7 @@
       <c r="F18" s="28"/>
       <c r="G18" s="28">
         <f>SUM(G11:G17)</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.5">
@@ -10182,7 +10397,7 @@
       <c r="F19" s="28"/>
       <c r="G19" s="28">
         <f>G18/6</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="21" x14ac:dyDescent="0.65">
@@ -10271,32 +10486,34 @@
       </c>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="D30" s="62"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="64"/>
+      <c r="D30" s="69" t="s">
+        <v>326</v>
+      </c>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="71"/>
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="D31" s="65"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="67"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="74"/>
     </row>
     <row r="32" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="D32" s="65"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="67"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="74"/>
     </row>
     <row r="33" spans="2:13" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D33" s="68"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="70"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="77"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B34" s="1" t="s">
@@ -10309,14 +10526,14 @@
       </c>
     </row>
     <row r="36" spans="2:13" ht="154.05000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C36" s="53" t="s">
+      <c r="C36" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
       <c r="J36" s="20"/>
       <c r="K36" s="20"/>
       <c r="L36" s="20"/>
@@ -10336,35 +10553,36 @@
       <c r="C38" t="s">
         <v>115</v>
       </c>
-      <c r="D38" t="str">
-        <f>IF(ISBLANK(A0_Plan!E13),"",A0_Plan!E13)</f>
-        <v>0_PP1_Planning Schedule</v>
-      </c>
-      <c r="E38" s="59"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="61"/>
+      <c r="D38" t="s">
+        <v>272</v>
+      </c>
+      <c r="E38" s="66" t="s">
+        <v>327</v>
+      </c>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="68"/>
     </row>
     <row r="39" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C39" t="s">
         <v>116</v>
       </c>
-      <c r="D39" t="str">
-        <f>IF(ISBLANK(A0_Plan!E14),"",A0_Plan!E14)</f>
-        <v>17_P2_Resume</v>
-      </c>
-      <c r="E39" s="59"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="61"/>
+      <c r="D39" t="s">
+        <v>295</v>
+      </c>
+      <c r="E39" s="66" t="s">
+        <v>328</v>
+      </c>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="68"/>
     </row>
     <row r="40" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C40" t="s">
         <v>117</v>
       </c>
-      <c r="D40" t="str">
-        <f>IF(ISBLANK(A0_Plan!E15),"",A0_Plan!E15)</f>
-        <v>31_D3_Design Your Life: Chap 1: Health, Work, Play, &amp; Love</v>
+      <c r="D40" t="s">
+        <v>287</v>
       </c>
       <c r="E40" s="24"/>
       <c r="F40" s="25"/>
@@ -10380,24 +10598,26 @@
       <c r="C42" t="s">
         <v>172</v>
       </c>
-      <c r="D42" t="str">
-        <f>IF(ISBLANK(A0_Plan!E17),"",A0_Plan!E17)</f>
-        <v>5_B5_Elevator Pitch: 5 Sentences</v>
-      </c>
-      <c r="E42" s="59"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="61"/>
+      <c r="D42" t="s">
+        <v>265</v>
+      </c>
+      <c r="E42" s="66" t="s">
+        <v>330</v>
+      </c>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="68"/>
     </row>
     <row r="43" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C43" t="s">
         <v>173</v>
       </c>
-      <c r="D43" t="str">
-        <f>IF(ISBLANK(A0_Plan!E18),"",A0_Plan!E18)</f>
-        <v>32_D4_Design Your Life: Chap 2: Work/Life view/compass</v>
-      </c>
-      <c r="E43" s="21"/>
+      <c r="D43" t="s">
+        <v>271</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>329</v>
+      </c>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
       <c r="H43" s="23"/>
@@ -10406,14 +10626,15 @@
       <c r="C44" t="s">
         <v>174</v>
       </c>
-      <c r="D44" t="str">
-        <f>IF(ISBLANK(A0_Plan!E19),"",A0_Plan!E19)</f>
-        <v>9_S4_Completed 100% Handshake Profile</v>
-      </c>
-      <c r="E44" s="21"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="23"/>
+      <c r="D44" t="s">
+        <v>277</v>
+      </c>
+      <c r="E44" s="66" t="s">
+        <v>328</v>
+      </c>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="68"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B46" s="5" t="s">
@@ -10421,14 +10642,14 @@
       </c>
     </row>
     <row r="47" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C47" s="53" t="s">
+      <c r="C47" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
       <c r="J47" s="20"/>
       <c r="K47" s="20"/>
       <c r="L47" s="20"/>
@@ -10452,42 +10673,47 @@
       <c r="C49" t="s">
         <v>120</v>
       </c>
-      <c r="D49" s="59"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="60"/>
-      <c r="H49" s="61"/>
+      <c r="D49" s="66" t="s">
+        <v>314</v>
+      </c>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="68"/>
     </row>
     <row r="50" spans="3:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C50" t="s">
         <v>121</v>
       </c>
-      <c r="D50" s="59"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="61"/>
+      <c r="D50" s="66" t="s">
+        <v>315</v>
+      </c>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="68"/>
     </row>
     <row r="51" spans="3:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C51" t="s">
         <v>122</v>
       </c>
-      <c r="D51" s="59"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="61"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="68"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="F11:H13" name="Week 1 Day Status"/>
   </protectedRanges>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="E42:H42"/>
     <mergeCell ref="C47:H47"/>
     <mergeCell ref="D49:H49"/>
     <mergeCell ref="D50:H50"/>
     <mergeCell ref="D51:H51"/>
+    <mergeCell ref="E44:H44"/>
     <mergeCell ref="E39:H39"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C6:H6"/>
@@ -10552,14 +10778,14 @@
       </c>
     </row>
     <row r="4" spans="2:13" ht="48" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
@@ -10571,14 +10797,14 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="79.05" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
@@ -10798,7 +11024,7 @@
       </c>
       <c r="D24" t="str">
         <f>IF(ISBLANK(A0_Plan!E47),"",A0_Plan!E47)</f>
-        <v>18_P3_Cover Letter Template</v>
+        <v>36_D8_The 2-Hour Job Search: Prioritization (Chap 1-4)</v>
       </c>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.5">
@@ -10825,7 +11051,7 @@
       </c>
       <c r="D27" t="str">
         <f>IF(ISBLANK(A0_Plan!E50),"",A0_Plan!E50)</f>
-        <v>12_S7_Informational Interview 2</v>
+        <v>16_P1_Photo</v>
       </c>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.5">
@@ -10843,32 +11069,32 @@
       </c>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="D30" s="62"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="64"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="71"/>
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="D31" s="65"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="67"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="74"/>
     </row>
     <row r="32" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="D32" s="65"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="67"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="74"/>
     </row>
     <row r="33" spans="2:13" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D33" s="68"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="70"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="77"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B34" s="1" t="s">
@@ -10881,14 +11107,14 @@
       </c>
     </row>
     <row r="36" spans="2:13" ht="154.05000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C36" s="53" t="s">
+      <c r="C36" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
       <c r="J36" s="20"/>
       <c r="K36" s="20"/>
       <c r="L36" s="20"/>
@@ -10912,10 +11138,10 @@
         <f>IF(ISBLANK(A0_Plan!E13),"",A0_Plan!E13)</f>
         <v>0_PP1_Planning Schedule</v>
       </c>
-      <c r="E38" s="59"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="61"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="68"/>
     </row>
     <row r="39" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C39" t="s">
@@ -10925,10 +11151,10 @@
         <f>IF(ISBLANK(A0_Plan!E14),"",A0_Plan!E14)</f>
         <v>17_P2_Resume</v>
       </c>
-      <c r="E39" s="59"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="61"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="68"/>
     </row>
     <row r="40" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C40" t="s">
@@ -10956,10 +11182,10 @@
         <f>IF(ISBLANK(A0_Plan!E17),"",A0_Plan!E17)</f>
         <v>5_B5_Elevator Pitch: 5 Sentences</v>
       </c>
-      <c r="E42" s="59"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="61"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="68"/>
     </row>
     <row r="43" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C43" t="s">
@@ -10993,14 +11219,14 @@
       </c>
     </row>
     <row r="47" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C47" s="53" t="s">
+      <c r="C47" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
       <c r="J47" s="20"/>
       <c r="K47" s="20"/>
       <c r="L47" s="20"/>
@@ -11024,31 +11250,31 @@
       <c r="C49" t="s">
         <v>120</v>
       </c>
-      <c r="D49" s="59"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="60"/>
-      <c r="H49" s="61"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="68"/>
     </row>
     <row r="50" spans="3:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C50" t="s">
         <v>121</v>
       </c>
-      <c r="D50" s="59"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="61"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="68"/>
     </row>
     <row r="51" spans="3:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C51" t="s">
         <v>122</v>
       </c>
-      <c r="D51" s="59"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="61"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="68"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -11124,14 +11350,14 @@
       </c>
     </row>
     <row r="4" spans="2:13" ht="48" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
@@ -11143,14 +11369,14 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="79.05" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
@@ -11224,7 +11450,7 @@
       </c>
       <c r="D13" t="str">
         <f>IF(ISBLANK(A0_Plan!E47),"",A0_Plan!E47)</f>
-        <v>18_P3_Cover Letter Template</v>
+        <v>36_D8_The 2-Hour Job Search: Prioritization (Chap 1-4)</v>
       </c>
       <c r="E13" t="str">
         <f>IF(ISBLANK(A0_Plan!F47),"",A0_Plan!F47)</f>
@@ -11271,7 +11497,7 @@
       </c>
       <c r="D16" t="str">
         <f>IF(ISBLANK(A0_Plan!E50),"",A0_Plan!E50)</f>
-        <v>12_S7_Informational Interview 2</v>
+        <v>16_P1_Photo</v>
       </c>
       <c r="E16" t="str">
         <f>IF(ISBLANK(A0_Plan!F50),"",A0_Plan!F50)</f>
@@ -11384,7 +11610,7 @@
       </c>
       <c r="D26" t="str">
         <f>IF(ISBLANK(A0_Plan!E57),"",A0_Plan!E57)</f>
-        <v>14_S9_Informational Interview 4</v>
+        <v>4_B4_Interviewing: VMOCK</v>
       </c>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.5">
@@ -11411,32 +11637,32 @@
       </c>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="D30" s="62"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="64"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="71"/>
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="D31" s="65"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="67"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="74"/>
     </row>
     <row r="32" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="D32" s="65"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="67"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="74"/>
     </row>
     <row r="33" spans="2:13" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D33" s="68"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="70"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="77"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B34" s="1" t="s">
@@ -11449,14 +11675,14 @@
       </c>
     </row>
     <row r="36" spans="2:13" ht="154.05000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C36" s="53" t="s">
+      <c r="C36" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
       <c r="J36" s="20"/>
       <c r="K36" s="20"/>
       <c r="L36" s="20"/>
@@ -11480,10 +11706,10 @@
         <f>IF(ISBLANK(A0_Plan!E13),"",A0_Plan!E13)</f>
         <v>0_PP1_Planning Schedule</v>
       </c>
-      <c r="E38" s="59"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="61"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="68"/>
     </row>
     <row r="39" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C39" t="s">
@@ -11493,10 +11719,10 @@
         <f>IF(ISBLANK(A0_Plan!E14),"",A0_Plan!E14)</f>
         <v>17_P2_Resume</v>
       </c>
-      <c r="E39" s="59"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="61"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="68"/>
     </row>
     <row r="40" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C40" t="s">
@@ -11524,10 +11750,10 @@
         <f>IF(ISBLANK(A0_Plan!E17),"",A0_Plan!E17)</f>
         <v>5_B5_Elevator Pitch: 5 Sentences</v>
       </c>
-      <c r="E42" s="59"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="61"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="68"/>
     </row>
     <row r="43" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C43" t="s">
@@ -11561,14 +11787,14 @@
       </c>
     </row>
     <row r="47" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C47" s="53" t="s">
+      <c r="C47" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
       <c r="J47" s="20"/>
       <c r="K47" s="20"/>
       <c r="L47" s="20"/>
@@ -11592,31 +11818,31 @@
       <c r="C49" t="s">
         <v>120</v>
       </c>
-      <c r="D49" s="59"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="60"/>
-      <c r="H49" s="61"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="68"/>
     </row>
     <row r="50" spans="3:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C50" t="s">
         <v>121</v>
       </c>
-      <c r="D50" s="59"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="61"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="68"/>
     </row>
     <row r="51" spans="3:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C51" t="s">
         <v>122</v>
       </c>
-      <c r="D51" s="59"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="61"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="68"/>
     </row>
   </sheetData>
   <protectedRanges>

--- a/CSE 300/StudentTrackingAssignments.xlsx
+++ b/CSE 300/StudentTrackingAssignments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alejo\Desktop\FAMILIA\Alejo\TECH\developments\PERSONAL DEVELOPMENTS\Machine-learning-projects\CSE 300\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5E9045-4F07-464D-A398-DA075184081E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DC0D84-E8C9-48EE-9243-C4CDD425BD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="875" activeTab="6" xr2:uid="{07D90E1F-7C1C-A043-A0EA-0FD351459508}"/>
   </bookViews>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="335">
   <si>
     <t>Issues</t>
   </si>
@@ -1245,6 +1245,18 @@
   </si>
   <si>
     <t>It helps me to have something to show to someone when they aske me about my academic experience and work experience</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/alejo-alegre-bustos-b03395174/</t>
+  </si>
+  <si>
+    <t>https://github.com/AlejoAlegreBustos/Machine-learning-projects/blob/main/CSE%20300/Alejo%20Alegre%20Bustos%20-%20CL.docx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I interview a persona in a career fair that I attended on Wednesday </t>
+  </si>
+  <si>
+    <t>I think it is a great way to see how our life coulg shift depending on what goals we set in our life</t>
   </si>
 </sst>
 </file>
@@ -3428,7 +3440,7 @@
       </c>
       <c r="C8" s="15">
         <f>Backlog!G3</f>
-        <v>0.74358974358974361</v>
+        <v>0.82051282051282048</v>
       </c>
       <c r="D8">
         <f>SUM(A0_Plan!H15:H69)</f>
@@ -3457,7 +3469,7 @@
       </c>
       <c r="H10" s="37">
         <f>Backlog!H37</f>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.5">
@@ -3582,11 +3594,11 @@
       </c>
       <c r="D16">
         <f>A3_Status!G18</f>
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E16" s="39">
         <f>A3_Status!G19</f>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G16" s="33" t="s">
         <v>185</v>
@@ -4329,17 +4341,17 @@
     <protectedRange sqref="F11:H13" name="Week 1 Day Status"/>
   </protectedRanges>
   <mergeCells count="11">
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
     <mergeCell ref="E39:H39"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="D30:H33"/>
     <mergeCell ref="C36:H36"/>
     <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F13 F15:F17" xr:uid="{A2A76FCC-8F65-48BC-A8F4-A01273D51EE7}">
@@ -4880,17 +4892,17 @@
     <protectedRange sqref="F11:H13" name="Week 1 Day Status"/>
   </protectedRanges>
   <mergeCells count="11">
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
     <mergeCell ref="E39:H39"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="D30:H33"/>
     <mergeCell ref="C36:H36"/>
     <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F13 F15:F17" xr:uid="{D1B2BB17-8A06-4144-A681-8A997469D79E}">
@@ -5724,7 +5736,7 @@
       </c>
       <c r="G3" s="15">
         <f>AVERAGEA(G4:G47)</f>
-        <v>0.74358974358974361</v>
+        <v>0.82051282051282048</v>
       </c>
       <c r="I3" s="15"/>
       <c r="K3" s="15"/>
@@ -6744,7 +6756,7 @@
       <c r="F37" s="3"/>
       <c r="H37" s="37">
         <f>AVERAGEA(G38:G47)</f>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.5">
@@ -6961,9 +6973,9 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G44" s="6" t="str">
+      <c r="G44" s="6">
         <f>IF(VLOOKUP(D44,A0_Plan!$E$13:$K$67,5,1)="Done", 1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H44" s="6"/>
       <c r="J44" s="6"/>
@@ -6993,9 +7005,9 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G45" s="6" t="str">
+      <c r="G45" s="6">
         <f>IF(VLOOKUP(D45,A0_Plan!$E$13:$K$67,5,1)="Done", 1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H45" s="6"/>
       <c r="J45" s="6"/>
@@ -7025,9 +7037,9 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G46" s="6" t="str">
+      <c r="G46" s="6">
         <f>IF(VLOOKUP(D46,A0_Plan!$E$13:$K$67,5,1)="Done", 1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H46" s="6"/>
       <c r="J46" s="6"/>
@@ -7886,9 +7898,9 @@
         <f>A3_Status!G11</f>
         <v>0.5</v>
       </c>
-      <c r="K29">
+      <c r="K29" t="str">
         <f>A3_Status!H11</f>
-        <v>0</v>
+        <v>https://github.com/AlejoAlegreBustos/Machine-learning-projects/blob/main/CSE%20300/speach-elevetaro.docx</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.5">
@@ -7918,9 +7930,9 @@
         <f>A3_Status!G12</f>
         <v>0.5</v>
       </c>
-      <c r="K30">
+      <c r="K30" t="str">
         <f>A3_Status!H12</f>
-        <v>0</v>
+        <v xml:space="preserve">I interview a persona in a career fair that I attended on Wednesday </v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.5">
@@ -7942,17 +7954,17 @@
         <f>IF(F31&gt;0, 1,0)</f>
         <v>0</v>
       </c>
-      <c r="I31">
+      <c r="I31" t="str">
         <f>A3_Status!F13</f>
-        <v>0</v>
+        <v>Done</v>
       </c>
       <c r="J31">
         <f>A3_Status!G13</f>
-        <v>0</v>
-      </c>
-      <c r="K31">
+        <v>1.5</v>
+      </c>
+      <c r="K31" t="str">
         <f>A3_Status!H13</f>
-        <v>0</v>
+        <v>I think it is a great way to see how our life coulg shift depending on what goals we set in our life</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.5">
@@ -7982,9 +7994,9 @@
         <f>A3_Status!G15</f>
         <v>0.5</v>
       </c>
-      <c r="K33">
+      <c r="K33" t="str">
         <f>A3_Status!H15</f>
-        <v>0</v>
+        <v>https://www.linkedin.com/in/alejo-alegre-bustos-b03395174/</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.5">
@@ -8014,9 +8026,9 @@
         <f>A3_Status!G16</f>
         <v>1</v>
       </c>
-      <c r="K34">
+      <c r="K34" t="str">
         <f>A3_Status!H16</f>
-        <v>0</v>
+        <v>https://github.com/AlejoAlegreBustos/Machine-learning-projects/blob/main/CSE%20300/Alejo%20Alegre%20Bustos%20-%20CL.docx</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.5">
@@ -8046,9 +8058,9 @@
         <f>A3_Status!G17</f>
         <v>0.5</v>
       </c>
-      <c r="K35">
+      <c r="K35" t="str">
         <f>A3_Status!H17</f>
-        <v>0</v>
+        <v xml:space="preserve">I interview a persona in a career fair that I attended on Wednesday </v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.5">
@@ -9486,6 +9498,11 @@
     <protectedRange sqref="F11:H13" name="Week 1 Day Status"/>
   </protectedRanges>
   <mergeCells count="14">
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
     <mergeCell ref="D51:H51"/>
     <mergeCell ref="D30:H33"/>
     <mergeCell ref="C47:H47"/>
@@ -9495,11 +9512,6 @@
     <mergeCell ref="E40:H40"/>
     <mergeCell ref="E44:H44"/>
     <mergeCell ref="E43:H43"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F13 F15:F17" xr:uid="{F8BA5BF8-27F7-0145-ACE8-38CF1DEED6A9}">
@@ -10108,12 +10120,6 @@
     <protectedRange sqref="F11:H13" name="Week 1 Day Status"/>
   </protectedRanges>
   <mergeCells count="13">
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="E44:H44"/>
     <mergeCell ref="E40:H40"/>
     <mergeCell ref="E39:H39"/>
     <mergeCell ref="C4:H4"/>
@@ -10121,6 +10127,12 @@
     <mergeCell ref="D30:H33"/>
     <mergeCell ref="C36:H36"/>
     <mergeCell ref="E38:H38"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="E44:H44"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F13 F15:F17" xr:uid="{0C4CAE71-73BA-45BA-B81A-F9DB73364F6C}">
@@ -10139,8 +10151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0840D4BE-EDCF-462B-B546-E2FDF8909DFF}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -10259,7 +10271,9 @@
       <c r="G11" s="7">
         <v>0.5</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.5">
       <c r="C12">
@@ -10279,7 +10293,9 @@
       <c r="G12" s="7">
         <v>0.5</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.5">
       <c r="C13">
@@ -10293,9 +10309,15 @@
         <f>IF(ISBLANK(A0_Plan!F31),"",A0_Plan!F31)</f>
         <v/>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.5">
       <c r="C14" t="s">
@@ -10330,7 +10352,9 @@
       <c r="G15" s="7">
         <v>0.5</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.5">
       <c r="C16">
@@ -10350,7 +10374,9 @@
       <c r="G16" s="7">
         <v>1</v>
       </c>
-      <c r="H16" s="7"/>
+      <c r="H16" s="7" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.5">
       <c r="C17">
@@ -10370,7 +10396,9 @@
       <c r="G17" s="7">
         <v>0.5</v>
       </c>
-      <c r="H17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.5">
       <c r="D18" s="27" t="s">
@@ -10383,7 +10411,7 @@
       <c r="F18" s="28"/>
       <c r="G18" s="28">
         <f>SUM(G11:G17)</f>
-        <v>3</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.5">
@@ -10397,7 +10425,7 @@
       <c r="F19" s="28"/>
       <c r="G19" s="28">
         <f>G18/6</f>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="21" x14ac:dyDescent="0.65">
@@ -10705,21 +10733,21 @@
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="F11:H13" name="Week 1 Day Status"/>
+    <protectedRange sqref="F11:H11 F13:H13 F12:G12" name="Week 1 Day Status"/>
   </protectedRanges>
   <mergeCells count="12">
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="D30:H33"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="E38:H38"/>
     <mergeCell ref="E42:H42"/>
     <mergeCell ref="C47:H47"/>
     <mergeCell ref="D49:H49"/>
     <mergeCell ref="D50:H50"/>
     <mergeCell ref="D51:H51"/>
     <mergeCell ref="E44:H44"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="D30:H33"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="E38:H38"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F13 F15:F17" xr:uid="{B26C00AE-C8F1-4A9E-BD78-2336D2567EF8}">
@@ -10738,7 +10766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E3BF9B-6B9F-4347-A3C9-CC5DD92EABEF}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView topLeftCell="C15" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
+    <sheetView topLeftCell="C6" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -11281,17 +11309,17 @@
     <protectedRange sqref="F11:H13" name="Week 1 Day Status"/>
   </protectedRanges>
   <mergeCells count="11">
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
     <mergeCell ref="E39:H39"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="D30:H33"/>
     <mergeCell ref="C36:H36"/>
     <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F13 F15:F17" xr:uid="{A4DED5BE-B352-4550-8DBB-9F1D1D8AB303}">
@@ -11849,17 +11877,17 @@
     <protectedRange sqref="F11:H13" name="Week 1 Day Status"/>
   </protectedRanges>
   <mergeCells count="11">
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
     <mergeCell ref="E39:H39"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="D30:H33"/>
     <mergeCell ref="C36:H36"/>
     <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F13 F15:F17" xr:uid="{F929D84E-5BAD-4824-868F-2008C632FB2D}">

--- a/CSE 300/StudentTrackingAssignments.xlsx
+++ b/CSE 300/StudentTrackingAssignments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alejo\Desktop\FAMILIA\Alejo\TECH\developments\PERSONAL DEVELOPMENTS\Machine-learning-projects\CSE 300\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DC0D84-E8C9-48EE-9243-C4CDD425BD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538FEF5B-918F-406B-B51E-756EF4621008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="875" activeTab="6" xr2:uid="{07D90E1F-7C1C-A043-A0EA-0FD351459508}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="875" activeTab="3" xr2:uid="{07D90E1F-7C1C-A043-A0EA-0FD351459508}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="349">
   <si>
     <t>Issues</t>
   </si>
@@ -1257,6 +1257,48 @@
   </si>
   <si>
     <t>I think it is a great way to see how our life coulg shift depending on what goals we set in our life</t>
+  </si>
+  <si>
+    <t>https://github.com/AlejoAlegreBustos/Machine-learning-projects/blob/main/CSE%20300/informational%20interview%20-%20david%20palmer.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/AlejoAlegreBustos/Machine-learning-projects/blob/main/CSE%20300/application%20job%201.png</t>
+  </si>
+  <si>
+    <t>https://github.com/AlejoAlegreBustos/Machine-learning-projects/blob/main/CSE%20300/application%20job%202.png</t>
+  </si>
+  <si>
+    <t>https://github.com/AlejoAlegreBustos/Machine-learning-projects/blob/main/CSE%20300/vmock-green%20zone.png</t>
+  </si>
+  <si>
+    <t>These chapters focus on targeted, organized outreach instead of sending random applications. You build a LAMP list to prioritize high-value contacts, especially alumni, and craft short, specific emails that clearly state your ask. Tracking responses and next steps in a spreadsheet keeps the process efficient, while batching outreach actions ensures momentum. The key is structure and focus, turning outreach into a repeatable, measurable process.</t>
+  </si>
+  <si>
+    <t>Execution is about turning planning into results. Focus first on contacts most likely to respond, maintain a consistent cadence of emails and follow-ups, and prepare for calls with clear, actionable questions. Treat the process like an experiment: track what works, refine your approach, and maintain daily consistency. Success comes from disciplined, systematic effort rather than sporadic, high-volume activity.</t>
+  </si>
+  <si>
+    <t>best way to know where you want to work, knowing about benefits, work enviroment and so on, it's a great help before wasting time in a place where you do not belong</t>
+  </si>
+  <si>
+    <t>I targeted this job for the great experience they offerd, specially with my degree</t>
+  </si>
+  <si>
+    <t>I targeted this job for the great experience they offerd, specially with my degree, I have many projects that are directly related with what they are looking for</t>
+  </si>
+  <si>
+    <t>Great way to know if you are in the right path or, at least, know that you getting close to it</t>
+  </si>
+  <si>
+    <t>I thing it is a big deal to target companies and positions to have a clear focus of action if not our efforts are just going to be random shoots</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>There is a great process called data exploration in Data Science, I think that's what these chapters are suggesting us to do, to understand where and when people is most likely to answer and email from a stranger</t>
+  </si>
+  <si>
+    <t>get an interview</t>
   </si>
 </sst>
 </file>
@@ -3440,7 +3482,7 @@
       </c>
       <c r="C8" s="15">
         <f>Backlog!G3</f>
-        <v>0.82051282051282048</v>
+        <v>0.84615384615384615</v>
       </c>
       <c r="D8">
         <f>SUM(A0_Plan!H15:H69)</f>
@@ -3469,7 +3511,7 @@
       </c>
       <c r="H10" s="37">
         <f>Backlog!H37</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.5">
@@ -3634,11 +3676,11 @@
       </c>
       <c r="D17">
         <f>A4_Status!G18</f>
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="E17" s="39">
         <f>A4_Status!G19</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="G17" s="33" t="s">
         <v>186</v>
@@ -3910,7 +3952,7 @@
       </c>
       <c r="D11" t="str">
         <f>IF(ISBLANK(A0_Plan!E53),"",A0_Plan!E53)</f>
-        <v>13_S8_Informational Interview 3</v>
+        <v>19_P4_References</v>
       </c>
       <c r="E11" t="str">
         <f>IF(ISBLANK(A0_Plan!F53),"",A0_Plan!F53)</f>
@@ -3973,7 +4015,7 @@
       </c>
       <c r="D15" t="str">
         <f>IF(ISBLANK(A0_Plan!E57),"",A0_Plan!E57)</f>
-        <v>4_B4_Interviewing: VMOCK</v>
+        <v>22_J1_Networking List</v>
       </c>
       <c r="E15" t="str">
         <f>IF(ISBLANK(A0_Plan!F57),"",A0_Plan!F57)</f>
@@ -4005,7 +4047,7 @@
       </c>
       <c r="D17" t="str">
         <f>IF(ISBLANK(A0_Plan!E59),"",A0_Plan!E59)</f>
-        <v>27_J6_Job Application 3</v>
+        <v>29_D1_Ethics in Technology</v>
       </c>
       <c r="E17" t="str">
         <f>IF(ISBLANK(A0_Plan!F59),"",A0_Plan!F59)</f>
@@ -4111,7 +4153,7 @@
       </c>
       <c r="D27" t="str">
         <f>IF(ISBLANK(A0_Plan!E66),"",A0_Plan!E66)</f>
-        <v>21_P6_Projects</v>
+        <v>39_A1_test1</v>
       </c>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.5">
@@ -4557,7 +4599,7 @@
       </c>
       <c r="D16" t="str">
         <f>IF(ISBLANK(A0_Plan!E66),"",A0_Plan!E66)</f>
-        <v>21_P6_Projects</v>
+        <v>39_A1_test1</v>
       </c>
       <c r="E16" t="str">
         <f>IF(ISBLANK(A0_Plan!F66),"",A0_Plan!F66)</f>
@@ -5672,7 +5714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57450B6-C1DE-D447-9C44-3E1497786FC5}">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -5736,7 +5778,7 @@
       </c>
       <c r="G3" s="15">
         <f>AVERAGEA(G4:G47)</f>
-        <v>0.82051282051282048</v>
+        <v>0.84615384615384615</v>
       </c>
       <c r="I3" s="15"/>
       <c r="K3" s="15"/>
@@ -6756,7 +6798,7 @@
       <c r="F37" s="3"/>
       <c r="H37" s="37">
         <f>AVERAGEA(G38:G47)</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.5">
@@ -7069,9 +7111,9 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G47" s="6" t="str">
+      <c r="G47" s="6">
         <f>IF(VLOOKUP(D47,A0_Plan!$E$13:$K$67,5,1)="Done", 1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H47" s="6"/>
       <c r="J47" s="6"/>
@@ -7211,8 +7253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E5406B-F50C-854D-9060-592EBAE21E85}">
   <dimension ref="B1:Q68"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A61" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O58" sqref="O58"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A46" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N64" sqref="N64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -8091,17 +8133,17 @@
         <f>IF(F37&gt;0, 1,0)</f>
         <v>0</v>
       </c>
-      <c r="I37">
+      <c r="I37" t="str">
         <f>A4_Status!F11</f>
-        <v>0</v>
+        <v>Done</v>
       </c>
       <c r="J37">
         <f>A4_Status!G11</f>
-        <v>0</v>
-      </c>
-      <c r="K37">
+        <v>0.5</v>
+      </c>
+      <c r="K37" t="str">
         <f>A4_Status!H11</f>
-        <v>0</v>
+        <v>https://github.com/AlejoAlegreBustos/Machine-learning-projects/blob/main/CSE%20300/application%20job%202.png</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.5">
@@ -8129,11 +8171,11 @@
       </c>
       <c r="J38">
         <f>A4_Status!G12</f>
-        <v>0.5</v>
-      </c>
-      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="K38" t="str">
         <f>A4_Status!H12</f>
-        <v>0</v>
+        <v>https://github.com/AlejoAlegreBustos/Machine-learning-projects/blob/main/CSE%20300/vmock-green%20zone.png</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.5">
@@ -8155,17 +8197,17 @@
         <f>IF(F39&gt;0, 1,0)</f>
         <v>0</v>
       </c>
-      <c r="I39">
+      <c r="I39" t="str">
         <f>A4_Status!F13</f>
-        <v>0</v>
+        <v>Done</v>
       </c>
       <c r="J39">
         <f>A4_Status!G13</f>
-        <v>0</v>
-      </c>
-      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="K39" t="str">
         <f>A4_Status!H13</f>
-        <v>0</v>
+        <v>These chapters focus on targeted, organized outreach instead of sending random applications. You build a LAMP list to prioritize high-value contacts, especially alumni, and craft short, specific emails that clearly state your ask. Tracking responses and next steps in a spreadsheet keeps the process efficient, while batching outreach actions ensures momentum. The key is structure and focus, turning outreach into a repeatable, measurable process.</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.5">
@@ -8187,17 +8229,17 @@
         <f>IF(F41&gt;0, 1,0)</f>
         <v>0</v>
       </c>
-      <c r="I41">
+      <c r="I41" t="str">
         <f>A4_Status!F15</f>
-        <v>0</v>
+        <v>Done</v>
       </c>
       <c r="J41">
         <f>A4_Status!G15</f>
-        <v>0</v>
-      </c>
-      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="K41" t="str">
         <f>A4_Status!H15</f>
-        <v>0</v>
+        <v>Execution is about turning planning into results. Focus first on contacts most likely to respond, maintain a consistent cadence of emails and follow-ups, and prepare for calls with clear, actionable questions. Treat the process like an experiment: track what works, refine your approach, and maintain daily consistency. Success comes from disciplined, systematic effort rather than sporadic, high-volume activity.</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.5">
@@ -8219,17 +8261,17 @@
         <f>IF(F42&gt;0, 1,0)</f>
         <v>0</v>
       </c>
-      <c r="I42">
+      <c r="I42" t="str">
         <f>A4_Status!F16</f>
-        <v>0</v>
+        <v>Done</v>
       </c>
       <c r="J42">
         <f>A4_Status!G16</f>
-        <v>0</v>
-      </c>
-      <c r="K42">
+        <v>0.5</v>
+      </c>
+      <c r="K42" t="str">
         <f>A4_Status!H16</f>
-        <v>0</v>
+        <v>https://github.com/AlejoAlegreBustos/Machine-learning-projects/blob/main/CSE%20300/application%20job%201.png</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.5">
@@ -8251,17 +8293,17 @@
         <f>IF(F43&gt;0, 1,0)</f>
         <v>0</v>
       </c>
-      <c r="I43">
+      <c r="I43" t="str">
         <f>A4_Status!F17</f>
-        <v>0</v>
+        <v>Done</v>
       </c>
       <c r="J43">
         <f>A4_Status!G17</f>
-        <v>0</v>
-      </c>
-      <c r="K43">
+        <v>0.5</v>
+      </c>
+      <c r="K43" t="str">
         <f>A4_Status!H17</f>
-        <v>0</v>
+        <v>https://github.com/AlejoAlegreBustos/Machine-learning-projects/blob/main/CSE%20300/informational%20interview%20-%20david%20palmer.pdf</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.5">
@@ -8281,7 +8323,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" t="str">
@@ -8313,7 +8355,7 @@
         <v>2</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" t="str">
@@ -8377,7 +8419,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" t="str">
@@ -8441,7 +8483,7 @@
         <v>3</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" t="str">
@@ -8482,7 +8524,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" t="str">
@@ -8578,7 +8620,7 @@
         <v>1</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" t="str">
@@ -8642,7 +8684,7 @@
         <v>3</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" t="str">
@@ -8811,7 +8853,7 @@
         <v>2</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" t="str">
@@ -8906,7 +8948,7 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49:H51"/>
+      <selection activeCell="D49" sqref="D49:H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -9533,7 +9575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0960C3A-E59D-480B-888F-45205DBBA9E3}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <selection activeCell="D49" sqref="D49:H50"/>
     </sheetView>
   </sheetViews>
@@ -10151,7 +10193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0840D4BE-EDCF-462B-B546-E2FDF8909DFF}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
+    <sheetView topLeftCell="C6" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -10766,8 +10808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E3BF9B-6B9F-4347-A3C9-CC5DD92EABEF}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView topLeftCell="C6" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -10880,9 +10922,15 @@
         <f>IF(ISBLANK(A0_Plan!F37),"",A0_Plan!F37)</f>
         <v/>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.5">
       <c r="C12">
@@ -10900,9 +10948,11 @@
         <v>105</v>
       </c>
       <c r="G12" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="H12" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.5">
       <c r="C13">
@@ -10916,9 +10966,15 @@
         <f>IF(ISBLANK(A0_Plan!F39),"",A0_Plan!F39)</f>
         <v/>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.5">
       <c r="C14" t="s">
@@ -10947,9 +11003,15 @@
         <f>IF(ISBLANK(A0_Plan!F41),"",A0_Plan!F41)</f>
         <v/>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.5">
       <c r="C16">
@@ -10963,9 +11025,15 @@
         <f>IF(ISBLANK(A0_Plan!F42),"",A0_Plan!F42)</f>
         <v/>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.5">
       <c r="C17">
@@ -10979,9 +11047,15 @@
         <f>IF(ISBLANK(A0_Plan!F43),"",A0_Plan!F43)</f>
         <v/>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.5">
       <c r="D18" s="27" t="s">
@@ -10994,7 +11068,7 @@
       <c r="F18" s="28"/>
       <c r="G18" s="28">
         <f>SUM(G11:G17)</f>
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.5">
@@ -11008,7 +11082,7 @@
       <c r="F19" s="28"/>
       <c r="G19" s="28">
         <f>G18/6</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="21" x14ac:dyDescent="0.65">
@@ -11034,7 +11108,7 @@
       </c>
       <c r="D22" t="str">
         <f>IF(ISBLANK(A0_Plan!E45),"",A0_Plan!E45)</f>
-        <v>22_J1_Networking List</v>
+        <v>21_P6_Projects</v>
       </c>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.5">
@@ -11043,7 +11117,7 @@
       </c>
       <c r="D23" t="str">
         <f>IF(ISBLANK(A0_Plan!E46),"",A0_Plan!E46)</f>
-        <v>39_A1_test1</v>
+        <v>4_B4_Interviewing: VMOCK</v>
       </c>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.5">
@@ -11070,7 +11144,7 @@
       </c>
       <c r="D26" t="str">
         <f>IF(ISBLANK(A0_Plan!E49),"",A0_Plan!E49)</f>
-        <v>29_D1_Ethics in Technology</v>
+        <v>13_S8_Informational Interview 3</v>
       </c>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.5">
@@ -11088,7 +11162,7 @@
       </c>
       <c r="D28" t="str">
         <f>IF(ISBLANK(A0_Plan!E51),"",A0_Plan!E51)</f>
-        <v>19_P4_References</v>
+        <v>27_J6_Job Application 3</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="21.4" thickBot="1" x14ac:dyDescent="0.7">
@@ -11097,7 +11171,9 @@
       </c>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="D30" s="69"/>
+      <c r="D30" s="69" t="s">
+        <v>307</v>
+      </c>
       <c r="E30" s="70"/>
       <c r="F30" s="70"/>
       <c r="G30" s="70"/>
@@ -11162,11 +11238,12 @@
       <c r="C38" t="s">
         <v>115</v>
       </c>
-      <c r="D38" t="str">
-        <f>IF(ISBLANK(A0_Plan!E13),"",A0_Plan!E13)</f>
-        <v>0_PP1_Planning Schedule</v>
-      </c>
-      <c r="E38" s="66"/>
+      <c r="D38" t="s">
+        <v>289</v>
+      </c>
+      <c r="E38" s="66" t="s">
+        <v>343</v>
+      </c>
       <c r="F38" s="67"/>
       <c r="G38" s="67"/>
       <c r="H38" s="68"/>
@@ -11175,11 +11252,12 @@
       <c r="C39" t="s">
         <v>116</v>
       </c>
-      <c r="D39" t="str">
-        <f>IF(ISBLANK(A0_Plan!E14),"",A0_Plan!E14)</f>
-        <v>17_P2_Resume</v>
-      </c>
-      <c r="E39" s="66"/>
+      <c r="D39" t="s">
+        <v>274</v>
+      </c>
+      <c r="E39" s="66" t="s">
+        <v>344</v>
+      </c>
       <c r="F39" s="67"/>
       <c r="G39" s="67"/>
       <c r="H39" s="68"/>
@@ -11188,11 +11266,12 @@
       <c r="C40" t="s">
         <v>117</v>
       </c>
-      <c r="D40" t="str">
-        <f>IF(ISBLANK(A0_Plan!E15),"",A0_Plan!E15)</f>
-        <v>31_D3_Design Your Life: Chap 1: Health, Work, Play, &amp; Love</v>
-      </c>
-      <c r="E40" s="24"/>
+      <c r="D40" t="s">
+        <v>290</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>345</v>
+      </c>
       <c r="F40" s="25"/>
       <c r="G40" s="25"/>
       <c r="H40" s="26"/>
@@ -11206,24 +11285,29 @@
       <c r="C42" t="s">
         <v>172</v>
       </c>
-      <c r="D42" t="str">
-        <f>IF(ISBLANK(A0_Plan!E17),"",A0_Plan!E17)</f>
-        <v>5_B5_Elevator Pitch: 5 Sentences</v>
-      </c>
-      <c r="E42" s="66"/>
+      <c r="D42" t="s">
+        <v>291</v>
+      </c>
+      <c r="E42" s="66" t="s">
+        <v>347</v>
+      </c>
       <c r="F42" s="67"/>
       <c r="G42" s="67"/>
       <c r="H42" s="68"/>
+      <c r="I42" s="18" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="43" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C43" t="s">
         <v>173</v>
       </c>
-      <c r="D43" t="str">
-        <f>IF(ISBLANK(A0_Plan!E18),"",A0_Plan!E18)</f>
-        <v>32_D4_Design Your Life: Chap 2: Work/Life view/compass</v>
-      </c>
-      <c r="E43" s="21"/>
+      <c r="D43" t="s">
+        <v>283</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>342</v>
+      </c>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
       <c r="H43" s="23"/>
@@ -11232,11 +11316,12 @@
       <c r="C44" t="s">
         <v>174</v>
       </c>
-      <c r="D44" t="str">
-        <f>IF(ISBLANK(A0_Plan!E19),"",A0_Plan!E19)</f>
-        <v>9_S4_Completed 100% Handshake Profile</v>
-      </c>
-      <c r="E44" s="21"/>
+      <c r="D44" t="s">
+        <v>275</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>341</v>
+      </c>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
       <c r="H44" s="23"/>
@@ -11278,7 +11363,9 @@
       <c r="C49" t="s">
         <v>120</v>
       </c>
-      <c r="D49" s="66"/>
+      <c r="D49" s="66" t="s">
+        <v>314</v>
+      </c>
       <c r="E49" s="67"/>
       <c r="F49" s="67"/>
       <c r="G49" s="67"/>
@@ -11288,7 +11375,9 @@
       <c r="C50" t="s">
         <v>121</v>
       </c>
-      <c r="D50" s="66"/>
+      <c r="D50" s="66" t="s">
+        <v>315</v>
+      </c>
       <c r="E50" s="67"/>
       <c r="F50" s="67"/>
       <c r="G50" s="67"/>
@@ -11298,7 +11387,9 @@
       <c r="C51" t="s">
         <v>122</v>
       </c>
-      <c r="D51" s="66"/>
+      <c r="D51" s="66" t="s">
+        <v>348</v>
+      </c>
       <c r="E51" s="67"/>
       <c r="F51" s="67"/>
       <c r="G51" s="67"/>
@@ -11338,8 +11429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECBD34D-9B60-4A0E-ACFC-919EB94BE09C}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -11446,7 +11537,7 @@
       </c>
       <c r="D11" t="str">
         <f>IF(ISBLANK(A0_Plan!E45),"",A0_Plan!E45)</f>
-        <v>22_J1_Networking List</v>
+        <v>21_P6_Projects</v>
       </c>
       <c r="E11" t="str">
         <f>IF(ISBLANK(A0_Plan!F45),"",A0_Plan!F45)</f>
@@ -11462,7 +11553,7 @@
       </c>
       <c r="D12" t="str">
         <f>IF(ISBLANK(A0_Plan!E46),"",A0_Plan!E46)</f>
-        <v>39_A1_test1</v>
+        <v>4_B4_Interviewing: VMOCK</v>
       </c>
       <c r="E12" t="str">
         <f>IF(ISBLANK(A0_Plan!F46),"",A0_Plan!F46)</f>
@@ -11509,7 +11600,7 @@
       </c>
       <c r="D15" t="str">
         <f>IF(ISBLANK(A0_Plan!E49),"",A0_Plan!E49)</f>
-        <v>29_D1_Ethics in Technology</v>
+        <v>13_S8_Informational Interview 3</v>
       </c>
       <c r="E15" t="str">
         <f>IF(ISBLANK(A0_Plan!F49),"",A0_Plan!F49)</f>
@@ -11541,7 +11632,7 @@
       </c>
       <c r="D17" t="str">
         <f>IF(ISBLANK(A0_Plan!E51),"",A0_Plan!E51)</f>
-        <v>19_P4_References</v>
+        <v>27_J6_Job Application 3</v>
       </c>
       <c r="E17" t="str">
         <f>IF(ISBLANK(A0_Plan!F51),"",A0_Plan!F51)</f>
@@ -11602,7 +11693,7 @@
       </c>
       <c r="D22" t="str">
         <f>IF(ISBLANK(A0_Plan!E53),"",A0_Plan!E53)</f>
-        <v>13_S8_Informational Interview 3</v>
+        <v>19_P4_References</v>
       </c>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.5">
@@ -11638,7 +11729,7 @@
       </c>
       <c r="D26" t="str">
         <f>IF(ISBLANK(A0_Plan!E57),"",A0_Plan!E57)</f>
-        <v>4_B4_Interviewing: VMOCK</v>
+        <v>22_J1_Networking List</v>
       </c>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.5">
@@ -11656,7 +11747,7 @@
       </c>
       <c r="D28" t="str">
         <f>IF(ISBLANK(A0_Plan!E59),"",A0_Plan!E59)</f>
-        <v>27_J6_Job Application 3</v>
+        <v>29_D1_Ethics in Technology</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="21.4" thickBot="1" x14ac:dyDescent="0.7">

--- a/CSE 300/StudentTrackingAssignments.xlsx
+++ b/CSE 300/StudentTrackingAssignments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alejo\Desktop\FAMILIA\Alejo\TECH\developments\PERSONAL DEVELOPMENTS\Machine-learning-projects\CSE 300\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538FEF5B-918F-406B-B51E-756EF4621008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B70CDF-E18E-4B43-83BE-BC2C9D6598B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="875" activeTab="3" xr2:uid="{07D90E1F-7C1C-A043-A0EA-0FD351459508}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="875" activeTab="10" xr2:uid="{07D90E1F-7C1C-A043-A0EA-0FD351459508}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="A7_Status" sheetId="25" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">A0_Plan!$A$1:$R$68</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">A0_Plan!$A$1:$R$82</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">A1_Status!$C$1:$H$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">A2_Status!$B$1:$H$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">A3_Status!$A$1:$H$51</definedName>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="361">
   <si>
     <t>Issues</t>
   </si>
@@ -1299,6 +1299,42 @@
   </si>
   <si>
     <t>get an interview</t>
+  </si>
+  <si>
+    <t>https://github.com/AlejoAlegreBustos/Machine-learning-projects</t>
+  </si>
+  <si>
+    <t>https://github.com/AlejoAlegreBustos/Machine-learning-projects/blob/main/CSE%20300/job%20application%203.png</t>
+  </si>
+  <si>
+    <t>https://github.com/AlejoAlegreBustos/Machine-learning-projects/blob/main/CSE%20300/251013_Alejo%20Alegre%20Bustos_002.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/AlejoAlegreBustos/Machine-learning-projects/blob/main/CSE%20300/vmock%20interviews.png</t>
+  </si>
+  <si>
+    <t>https://github.com/AlejoAlegreBustos/Machine-learning-projects/blob/main/CSE%20300/informational%20interview%203.png</t>
+  </si>
+  <si>
+    <t>The first four chapters of The 2-Hour Job Search are all about working smarter when job hunting. Instead of sending your résumé everywhere and hoping for luck, Steve Dalton shows a faster way using the LAMP method — List, Alumni, Motivation, and Posting. Basically, you make a list of companies you’d like to work for, see where you’ve got some kind of connection, check which ones actually interest you, and note if they’ve got open roles. Then you rank them, so you know where to start reaching out. It’s a simple system that takes a couple of hours to set up but makes the whole job search way more focused and less stressful.</t>
+  </si>
+  <si>
+    <t>great wat to practice coding, also, it is a excellente way to lear before hand in which branch of data science I would like to work</t>
+  </si>
+  <si>
+    <t>great way to practice and lose the fear or insecurity that you feel before the interview</t>
+  </si>
+  <si>
+    <t>this time I learn what that informational interviews are great way to know what life style you can have in certain companies</t>
+  </si>
+  <si>
+    <t>In class</t>
+  </si>
+  <si>
+    <t>Placeholder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I interviewed Murphy USA, a gas copany, in this case we had the visit of the data and software engineering team, I asked a couple of questions about how is the company implementing math models or ML models in the context of AI </t>
   </si>
 </sst>
 </file>
@@ -3453,7 +3489,7 @@
       </c>
       <c r="H6" s="37">
         <f>Backlog!H5</f>
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.5">
@@ -3482,7 +3518,7 @@
       </c>
       <c r="C8" s="15">
         <f>Backlog!G3</f>
-        <v>0.84615384615384615</v>
+        <v>0.87179487179487181</v>
       </c>
       <c r="D8">
         <f>SUM(A0_Plan!H15:H69)</f>
@@ -3716,11 +3752,11 @@
       </c>
       <c r="D18">
         <f>A5_Status!G18</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E18" s="39">
         <f>A5_Status!G19</f>
-        <v>0</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="G18" s="33" t="s">
         <v>187</v>
@@ -3756,11 +3792,11 @@
       </c>
       <c r="D19">
         <f>A6_Status!G18</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E19" s="39">
         <f>A6_Status!G19</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G19" s="33" t="s">
         <v>188</v>
@@ -3796,11 +3832,11 @@
       </c>
       <c r="D20">
         <f>A7_Status!G18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="39">
         <f>A7_Status!G19</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G20" s="33" t="s">
         <v>189</v>
@@ -3844,8 +3880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8515058B-4DE2-4DB6-8AD2-37BD43F2C8C4}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="C6" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -3958,8 +3994,12 @@
         <f>IF(ISBLANK(A0_Plan!F53),"",A0_Plan!F53)</f>
         <v/>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.5">
@@ -3974,9 +4014,15 @@
         <f>IF(ISBLANK(A0_Plan!F54),"",A0_Plan!F54)</f>
         <v/>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.5">
       <c r="C13">
@@ -3984,14 +4030,18 @@
       </c>
       <c r="D13" t="str">
         <f>IF(ISBLANK(A0_Plan!E55),"",A0_Plan!E55)</f>
-        <v>23_J2_Network Contact List</v>
+        <v>6_S1_Scheduled Silver Meeting with Career Services</v>
       </c>
       <c r="E13" t="str">
         <f>IF(ISBLANK(A0_Plan!F55),"",A0_Plan!F55)</f>
         <v/>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.5">
@@ -4015,15 +4065,21 @@
       </c>
       <c r="D15" t="str">
         <f>IF(ISBLANK(A0_Plan!E57),"",A0_Plan!E57)</f>
-        <v>22_J1_Networking List</v>
+        <v>24_J3_Company Dossiers</v>
       </c>
       <c r="E15" t="str">
         <f>IF(ISBLANK(A0_Plan!F57),"",A0_Plan!F57)</f>
         <v/>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.5">
       <c r="C16">
@@ -4037,9 +4093,15 @@
         <f>IF(ISBLANK(A0_Plan!F58),"",A0_Plan!F58)</f>
         <v/>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.5">
       <c r="C17">
@@ -4053,9 +4115,15 @@
         <f>IF(ISBLANK(A0_Plan!F59),"",A0_Plan!F59)</f>
         <v/>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="7">
+        <v>1</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.5">
       <c r="D18" s="27" t="s">
@@ -4068,7 +4136,7 @@
       <c r="F18" s="28"/>
       <c r="G18" s="28">
         <f>SUM(G11:G17)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.5">
@@ -4082,7 +4150,7 @@
       <c r="F19" s="28"/>
       <c r="G19" s="28">
         <f>G18/6</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="21" x14ac:dyDescent="0.65">
@@ -4117,7 +4185,7 @@
       </c>
       <c r="D23" t="str">
         <f>IF(ISBLANK(A0_Plan!E62),"",A0_Plan!E62)</f>
-        <v>24_J3_Company Dossiers</v>
+        <v>22_J1_Networking List</v>
       </c>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.5">
@@ -4162,7 +4230,7 @@
       </c>
       <c r="D28" t="str">
         <f>IF(ISBLANK(A0_Plan!E67),"",A0_Plan!E67)</f>
-        <v>6_S1_Scheduled Silver Meeting with Career Services</v>
+        <v>23_J2_Network Contact List</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="21.4" thickBot="1" x14ac:dyDescent="0.7">
@@ -4383,17 +4451,17 @@
     <protectedRange sqref="F11:H13" name="Week 1 Day Status"/>
   </protectedRanges>
   <mergeCells count="11">
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
     <mergeCell ref="E39:H39"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="D30:H33"/>
     <mergeCell ref="C36:H36"/>
     <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F13 F15:F17" xr:uid="{A2A76FCC-8F65-48BC-A8F4-A01273D51EE7}">
@@ -4412,8 +4480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9622B604-494A-4C6C-A562-4F39848323A4}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -4526,9 +4594,15 @@
         <f>IF(ISBLANK(A0_Plan!F61),"",A0_Plan!F61)</f>
         <v/>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.5">
       <c r="C12">
@@ -4536,7 +4610,7 @@
       </c>
       <c r="D12" t="str">
         <f>IF(ISBLANK(A0_Plan!E62),"",A0_Plan!E62)</f>
-        <v>24_J3_Company Dossiers</v>
+        <v>22_J1_Networking List</v>
       </c>
       <c r="E12" t="str">
         <f>IF(ISBLANK(A0_Plan!F62),"",A0_Plan!F62)</f>
@@ -4615,7 +4689,7 @@
       </c>
       <c r="D17" t="str">
         <f>IF(ISBLANK(A0_Plan!E67),"",A0_Plan!E67)</f>
-        <v>6_S1_Scheduled Silver Meeting with Career Services</v>
+        <v>23_J2_Network Contact List</v>
       </c>
       <c r="E17" t="str">
         <f>IF(ISBLANK(A0_Plan!F67),"",A0_Plan!F67)</f>
@@ -4636,7 +4710,7 @@
       <c r="F18" s="28"/>
       <c r="G18" s="28">
         <f>SUM(G11:G17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.5">
@@ -4650,7 +4724,7 @@
       <c r="F19" s="28"/>
       <c r="G19" s="28">
         <f>G18/6</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="21" x14ac:dyDescent="0.65">
@@ -4934,17 +5008,17 @@
     <protectedRange sqref="F11:H13" name="Week 1 Day Status"/>
   </protectedRanges>
   <mergeCells count="11">
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
     <mergeCell ref="E39:H39"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="D30:H33"/>
     <mergeCell ref="C36:H36"/>
     <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F13 F15:F17" xr:uid="{D1B2BB17-8A06-4144-A681-8A997469D79E}">
@@ -5778,7 +5852,7 @@
       </c>
       <c r="G3" s="15">
         <f>AVERAGEA(G4:G47)</f>
-        <v>0.84615384615384615</v>
+        <v>0.87179487179487181</v>
       </c>
       <c r="I3" s="15"/>
       <c r="K3" s="15"/>
@@ -5829,7 +5903,7 @@
       <c r="F5" s="13"/>
       <c r="H5" s="37">
         <f>AVERAGEA(G6:G10)</f>
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.5">
@@ -5950,9 +6024,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G9" s="6" t="str">
+      <c r="G9" s="6">
         <f>IF(VLOOKUP(D9,A0_Plan!$E$13:$K$67,5,1)="Done", 1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H9" s="6"/>
       <c r="J9" s="6"/>
@@ -7253,8 +7327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E5406B-F50C-854D-9060-592EBAE21E85}">
   <dimension ref="B1:Q68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A46" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N64" sqref="N64"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A49" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -8334,17 +8408,17 @@
         <f>IF(F45&gt;0, 1,0)</f>
         <v>0</v>
       </c>
-      <c r="I45">
+      <c r="I45" t="str">
         <f>A5_Status!F11</f>
-        <v>0</v>
+        <v>Working</v>
       </c>
       <c r="J45">
         <f>A5_Status!G11</f>
-        <v>0</v>
-      </c>
-      <c r="K45">
+        <v>10</v>
+      </c>
+      <c r="K45" t="str">
         <f>A5_Status!H11</f>
-        <v>0</v>
+        <v>https://github.com/AlejoAlegreBustos/Machine-learning-projects</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.5">
@@ -8366,17 +8440,17 @@
         <f>IF(F46&gt;0, 1,0)</f>
         <v>0</v>
       </c>
-      <c r="I46">
+      <c r="I46" t="str">
         <f>A5_Status!F12</f>
-        <v>0</v>
+        <v>Done</v>
       </c>
       <c r="J46">
         <f>A5_Status!G12</f>
-        <v>0</v>
-      </c>
-      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="K46" t="str">
         <f>A5_Status!H12</f>
-        <v>0</v>
+        <v>https://github.com/AlejoAlegreBustos/Machine-learning-projects/blob/main/CSE%20300/vmock%20interviews.png</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.5">
@@ -8398,17 +8472,17 @@
         <f>IF(F47&gt;0, 1,0)</f>
         <v>0</v>
       </c>
-      <c r="I47">
+      <c r="I47" t="str">
         <f>A5_Status!F13</f>
-        <v>0</v>
+        <v>Done</v>
       </c>
       <c r="J47">
         <f>A5_Status!G13</f>
-        <v>0</v>
-      </c>
-      <c r="K47">
+        <v>1.5</v>
+      </c>
+      <c r="K47" t="str">
         <f>A5_Status!H13</f>
-        <v>0</v>
+        <v>The first four chapters of The 2-Hour Job Search are all about working smarter when job hunting. Instead of sending your résumé everywhere and hoping for luck, Steve Dalton shows a faster way using the LAMP method — List, Alumni, Motivation, and Posting. Basically, you make a list of companies you’d like to work for, see where you’ve got some kind of connection, check which ones actually interest you, and note if they’ve got open roles. Then you rank them, so you know where to start reaching out. It’s a simple system that takes a couple of hours to set up but makes the whole job search way more focused and less stressful.</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.5">
@@ -8430,17 +8504,17 @@
         <f>IF(F49&gt;0, 1,0)</f>
         <v>0</v>
       </c>
-      <c r="I49">
+      <c r="I49" t="str">
         <f>A5_Status!F15</f>
-        <v>0</v>
+        <v>Done</v>
       </c>
       <c r="J49">
         <f>A5_Status!G15</f>
-        <v>0</v>
-      </c>
-      <c r="K49">
+        <v>0.5</v>
+      </c>
+      <c r="K49" t="str">
         <f>A5_Status!H15</f>
-        <v>0</v>
+        <v>https://github.com/AlejoAlegreBustos/Machine-learning-projects/blob/main/CSE%20300/informational%20interview%203.png</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.5">
@@ -8462,17 +8536,17 @@
         <f>IF(F50&gt;0, 1,0)</f>
         <v>0</v>
       </c>
-      <c r="I50">
+      <c r="I50" t="str">
         <f>A5_Status!F16</f>
-        <v>0</v>
+        <v>Done</v>
       </c>
       <c r="J50">
         <f>A5_Status!G16</f>
-        <v>0</v>
-      </c>
-      <c r="K50">
+        <v>0.5</v>
+      </c>
+      <c r="K50" t="str">
         <f>A5_Status!H16</f>
-        <v>0</v>
+        <v>https://github.com/AlejoAlegreBustos/Machine-learning-projects/blob/main/CSE%20300/251013_Alejo%20Alegre%20Bustos_002.jpg</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.5">
@@ -8494,17 +8568,17 @@
         <f>IF(F51&gt;0, 1,0)</f>
         <v>0</v>
       </c>
-      <c r="I51">
+      <c r="I51" t="str">
         <f>A5_Status!F17</f>
-        <v>0</v>
+        <v>Done</v>
       </c>
       <c r="J51">
         <f>A5_Status!G17</f>
-        <v>0</v>
-      </c>
-      <c r="K51">
+        <v>0.5</v>
+      </c>
+      <c r="K51" t="str">
         <f>A5_Status!H17</f>
-        <v>0</v>
+        <v>https://github.com/AlejoAlegreBustos/Machine-learning-projects/blob/main/CSE%20300/job%20application%203.png</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.5">
@@ -8535,13 +8609,13 @@
         <f>IF(F53&gt;0, 1,0)</f>
         <v>0</v>
       </c>
-      <c r="I53">
+      <c r="I53" t="str">
         <f>A6_Status!F11</f>
-        <v>0</v>
+        <v>Done</v>
       </c>
       <c r="J53">
         <f>A6_Status!G11</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K53">
         <f>A6_Status!H11</f>
@@ -8567,17 +8641,17 @@
         <f>IF(F54&gt;0, 1,0)</f>
         <v>0</v>
       </c>
-      <c r="I54">
+      <c r="I54" t="str">
         <f>A6_Status!F12</f>
-        <v>0</v>
+        <v>Done</v>
       </c>
       <c r="J54">
         <f>A6_Status!G12</f>
-        <v>0</v>
-      </c>
-      <c r="K54">
+        <v>0.5</v>
+      </c>
+      <c r="K54" t="str">
         <f>A6_Status!H12</f>
-        <v>0</v>
+        <v>Placeholder</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.5">
@@ -8588,7 +8662,7 @@
         <v>3</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" t="str">
@@ -8599,13 +8673,13 @@
         <f>IF(F55&gt;0, 1,0)</f>
         <v>0</v>
       </c>
-      <c r="I55">
+      <c r="I55" t="str">
         <f>A6_Status!F13</f>
-        <v>0</v>
+        <v>Done</v>
       </c>
       <c r="J55">
         <f>A6_Status!G13</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K55">
         <f>A6_Status!H13</f>
@@ -8620,7 +8694,7 @@
         <v>1</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" t="str">
@@ -8631,17 +8705,17 @@
         <f>IF(F57&gt;0, 1,0)</f>
         <v>0</v>
       </c>
-      <c r="I57">
+      <c r="I57" t="str">
         <f>A6_Status!F15</f>
-        <v>0</v>
+        <v>Done</v>
       </c>
       <c r="J57">
         <f>A6_Status!G15</f>
-        <v>0</v>
-      </c>
-      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="K57" t="str">
         <f>A6_Status!H15</f>
-        <v>0</v>
+        <v>In class</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.5">
@@ -8663,17 +8737,17 @@
         <f>IF(F58&gt;0, 1,0)</f>
         <v>0</v>
       </c>
-      <c r="I58">
+      <c r="I58" t="str">
         <f>A6_Status!F16</f>
-        <v>0</v>
+        <v>Done</v>
       </c>
       <c r="J58">
         <f>A6_Status!G16</f>
-        <v>0</v>
-      </c>
-      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="K58" t="str">
         <f>A6_Status!H16</f>
-        <v>0</v>
+        <v>In class</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.5">
@@ -8695,17 +8769,17 @@
         <f>IF(F59&gt;0, 1,0)</f>
         <v>0</v>
       </c>
-      <c r="I59">
+      <c r="I59" t="str">
         <f>A6_Status!F17</f>
-        <v>0</v>
+        <v>Done</v>
       </c>
       <c r="J59">
         <f>A6_Status!G17</f>
-        <v>0</v>
-      </c>
-      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="K59" t="str">
         <f>A6_Status!H17</f>
-        <v>0</v>
+        <v>In class</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.5">
@@ -8736,17 +8810,17 @@
         <f>IF(F61&gt;0, 1,0)</f>
         <v>0</v>
       </c>
-      <c r="I61">
+      <c r="I61" t="str">
         <f>A7_Status!F11</f>
-        <v>0</v>
+        <v>Done</v>
       </c>
       <c r="J61">
         <f>A7_Status!G11</f>
-        <v>0</v>
-      </c>
-      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="K61" t="str">
         <f>A7_Status!H11</f>
-        <v>0</v>
+        <v xml:space="preserve">I interviewed Murphy USA, a gas copany, in this case we had the visit of the data and software engineering team, I asked a couple of questions about how is the company implementing math models or ML models in the context of AI </v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.5">
@@ -8757,7 +8831,7 @@
         <v>2</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" t="str">
@@ -8885,7 +8959,7 @@
         <v>3</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="F67" s="7"/>
       <c r="G67" t="str">
@@ -9540,11 +9614,6 @@
     <protectedRange sqref="F11:H13" name="Week 1 Day Status"/>
   </protectedRanges>
   <mergeCells count="14">
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
     <mergeCell ref="D51:H51"/>
     <mergeCell ref="D30:H33"/>
     <mergeCell ref="C47:H47"/>
@@ -9554,6 +9623,11 @@
     <mergeCell ref="E40:H40"/>
     <mergeCell ref="E44:H44"/>
     <mergeCell ref="E43:H43"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F13 F15:F17" xr:uid="{F8BA5BF8-27F7-0145-ACE8-38CF1DEED6A9}">
@@ -10162,6 +10236,12 @@
     <protectedRange sqref="F11:H13" name="Week 1 Day Status"/>
   </protectedRanges>
   <mergeCells count="13">
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="E44:H44"/>
     <mergeCell ref="E40:H40"/>
     <mergeCell ref="E39:H39"/>
     <mergeCell ref="C4:H4"/>
@@ -10169,12 +10249,6 @@
     <mergeCell ref="D30:H33"/>
     <mergeCell ref="C36:H36"/>
     <mergeCell ref="E38:H38"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="E44:H44"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F13 F15:F17" xr:uid="{0C4CAE71-73BA-45BA-B81A-F9DB73364F6C}">
@@ -10778,18 +10852,18 @@
     <protectedRange sqref="F11:H11 F13:H13 F12:G12" name="Week 1 Day Status"/>
   </protectedRanges>
   <mergeCells count="12">
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="E44:H44"/>
     <mergeCell ref="E39:H39"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="D30:H33"/>
     <mergeCell ref="C36:H36"/>
     <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="E44:H44"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F13 F15:F17" xr:uid="{B26C00AE-C8F1-4A9E-BD78-2336D2567EF8}">
@@ -10808,8 +10882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E3BF9B-6B9F-4347-A3C9-CC5DD92EABEF}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView topLeftCell="A44" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49:H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -11400,17 +11474,17 @@
     <protectedRange sqref="F11:H13" name="Week 1 Day Status"/>
   </protectedRanges>
   <mergeCells count="11">
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
     <mergeCell ref="E39:H39"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="D30:H33"/>
     <mergeCell ref="C36:H36"/>
     <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F13 F15:F17" xr:uid="{A4DED5BE-B352-4550-8DBB-9F1D1D8AB303}">
@@ -11430,7 +11504,7 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D11" sqref="D11:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -11543,9 +11617,15 @@
         <f>IF(ISBLANK(A0_Plan!F45),"",A0_Plan!F45)</f>
         <v/>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="7">
+        <v>10</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.5">
       <c r="C12">
@@ -11559,9 +11639,15 @@
         <f>IF(ISBLANK(A0_Plan!F46),"",A0_Plan!F46)</f>
         <v/>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.5">
       <c r="C13">
@@ -11575,9 +11661,15 @@
         <f>IF(ISBLANK(A0_Plan!F47),"",A0_Plan!F47)</f>
         <v/>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.5">
       <c r="C14" t="s">
@@ -11606,9 +11698,15 @@
         <f>IF(ISBLANK(A0_Plan!F49),"",A0_Plan!F49)</f>
         <v/>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.5">
       <c r="C16">
@@ -11622,9 +11720,15 @@
         <f>IF(ISBLANK(A0_Plan!F50),"",A0_Plan!F50)</f>
         <v/>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.5">
       <c r="C17">
@@ -11638,9 +11742,15 @@
         <f>IF(ISBLANK(A0_Plan!F51),"",A0_Plan!F51)</f>
         <v/>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.5">
       <c r="D18" s="27" t="s">
@@ -11653,7 +11763,7 @@
       <c r="F18" s="28"/>
       <c r="G18" s="28">
         <f>SUM(G11:G17)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.5">
@@ -11667,7 +11777,7 @@
       <c r="F19" s="28"/>
       <c r="G19" s="28">
         <f>G18/6</f>
-        <v>0</v>
+        <v>2.3333333333333335</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="21" x14ac:dyDescent="0.65">
@@ -11711,7 +11821,7 @@
       </c>
       <c r="D24" t="str">
         <f>IF(ISBLANK(A0_Plan!E55),"",A0_Plan!E55)</f>
-        <v>23_J2_Network Contact List</v>
+        <v>6_S1_Scheduled Silver Meeting with Career Services</v>
       </c>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.5">
@@ -11729,7 +11839,7 @@
       </c>
       <c r="D26" t="str">
         <f>IF(ISBLANK(A0_Plan!E57),"",A0_Plan!E57)</f>
-        <v>22_J1_Networking List</v>
+        <v>24_J3_Company Dossiers</v>
       </c>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.5">
@@ -11756,7 +11866,9 @@
       </c>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="D30" s="69"/>
+      <c r="D30" s="69" t="s">
+        <v>307</v>
+      </c>
       <c r="E30" s="70"/>
       <c r="F30" s="70"/>
       <c r="G30" s="70"/>
@@ -11821,11 +11933,12 @@
       <c r="C38" t="s">
         <v>115</v>
       </c>
-      <c r="D38" t="str">
-        <f>IF(ISBLANK(A0_Plan!E13),"",A0_Plan!E13)</f>
-        <v>0_PP1_Planning Schedule</v>
-      </c>
-      <c r="E38" s="66"/>
+      <c r="D38" t="s">
+        <v>262</v>
+      </c>
+      <c r="E38" s="66" t="s">
+        <v>355</v>
+      </c>
       <c r="F38" s="67"/>
       <c r="G38" s="67"/>
       <c r="H38" s="68"/>
@@ -11834,11 +11947,12 @@
       <c r="C39" t="s">
         <v>116</v>
       </c>
-      <c r="D39" t="str">
-        <f>IF(ISBLANK(A0_Plan!E14),"",A0_Plan!E14)</f>
-        <v>17_P2_Resume</v>
-      </c>
-      <c r="E39" s="66"/>
+      <c r="D39" t="s">
+        <v>273</v>
+      </c>
+      <c r="E39" s="66" t="s">
+        <v>356</v>
+      </c>
       <c r="F39" s="67"/>
       <c r="G39" s="67"/>
       <c r="H39" s="68"/>
@@ -11847,11 +11961,12 @@
       <c r="C40" t="s">
         <v>117</v>
       </c>
-      <c r="D40" t="str">
-        <f>IF(ISBLANK(A0_Plan!E15),"",A0_Plan!E15)</f>
-        <v>31_D3_Design Your Life: Chap 1: Health, Work, Play, &amp; Love</v>
-      </c>
-      <c r="E40" s="24"/>
+      <c r="D40" t="s">
+        <v>288</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>354</v>
+      </c>
       <c r="F40" s="25"/>
       <c r="G40" s="25"/>
       <c r="H40" s="26"/>
@@ -11865,11 +11980,12 @@
       <c r="C42" t="s">
         <v>172</v>
       </c>
-      <c r="D42" t="str">
-        <f>IF(ISBLANK(A0_Plan!E17),"",A0_Plan!E17)</f>
-        <v>5_B5_Elevator Pitch: 5 Sentences</v>
-      </c>
-      <c r="E42" s="66"/>
+      <c r="D42" t="s">
+        <v>281</v>
+      </c>
+      <c r="E42" s="66" t="s">
+        <v>357</v>
+      </c>
       <c r="F42" s="67"/>
       <c r="G42" s="67"/>
       <c r="H42" s="68"/>
@@ -11878,9 +11994,8 @@
       <c r="C43" t="s">
         <v>173</v>
       </c>
-      <c r="D43" t="str">
-        <f>IF(ISBLANK(A0_Plan!E18),"",A0_Plan!E18)</f>
-        <v>32_D4_Design Your Life: Chap 2: Work/Life view/compass</v>
+      <c r="D43" t="s">
+        <v>268</v>
       </c>
       <c r="E43" s="21"/>
       <c r="F43" s="22"/>
@@ -11891,9 +12006,8 @@
       <c r="C44" t="s">
         <v>174</v>
       </c>
-      <c r="D44" t="str">
-        <f>IF(ISBLANK(A0_Plan!E19),"",A0_Plan!E19)</f>
-        <v>9_S4_Completed 100% Handshake Profile</v>
+      <c r="D44" t="s">
+        <v>297</v>
       </c>
       <c r="E44" s="21"/>
       <c r="F44" s="22"/>
@@ -11937,7 +12051,9 @@
       <c r="C49" t="s">
         <v>120</v>
       </c>
-      <c r="D49" s="66"/>
+      <c r="D49" s="66" t="s">
+        <v>314</v>
+      </c>
       <c r="E49" s="67"/>
       <c r="F49" s="67"/>
       <c r="G49" s="67"/>
@@ -11947,7 +12063,9 @@
       <c r="C50" t="s">
         <v>121</v>
       </c>
-      <c r="D50" s="66"/>
+      <c r="D50" s="66" t="s">
+        <v>315</v>
+      </c>
       <c r="E50" s="67"/>
       <c r="F50" s="67"/>
       <c r="G50" s="67"/>
@@ -11957,7 +12075,9 @@
       <c r="C51" t="s">
         <v>122</v>
       </c>
-      <c r="D51" s="66"/>
+      <c r="D51" s="66" t="s">
+        <v>348</v>
+      </c>
       <c r="E51" s="67"/>
       <c r="F51" s="67"/>
       <c r="G51" s="67"/>
@@ -11965,20 +12085,20 @@
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="F11:H13" name="Week 1 Day Status"/>
+    <protectedRange sqref="F11:H13 E40" name="Week 1 Day Status"/>
   </protectedRanges>
   <mergeCells count="11">
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
     <mergeCell ref="E39:H39"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="D30:H33"/>
     <mergeCell ref="C36:H36"/>
     <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F13 F15:F17" xr:uid="{F929D84E-5BAD-4824-868F-2008C632FB2D}">

--- a/CSE 300/StudentTrackingAssignments.xlsx
+++ b/CSE 300/StudentTrackingAssignments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alejo\Desktop\FAMILIA\Alejo\TECH\developments\PERSONAL DEVELOPMENTS\Machine-learning-projects\CSE 300\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B70CDF-E18E-4B43-83BE-BC2C9D6598B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AE93AC-B667-47DE-B40A-EE28B36C4429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="875" activeTab="10" xr2:uid="{07D90E1F-7C1C-A043-A0EA-0FD351459508}"/>
   </bookViews>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="370">
   <si>
     <t>Issues</t>
   </si>
@@ -1334,7 +1334,34 @@
     <t>Placeholder</t>
   </si>
   <si>
-    <t xml:space="preserve">I interviewed Murphy USA, a gas copany, in this case we had the visit of the data and software engineering team, I asked a couple of questions about how is the company implementing math models or ML models in the context of AI </t>
+    <t>https://github.com/AlejoAlegreBustos/Machine-learning-projects/blob/main/CSE%20300/professional%20reference.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/AlejoAlegreBustos/Machine-learning-projects/blob/main/CSE%20300/silver%20certification%20appointment.png</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>great way to keep your resources and networking organize, sometimes your peers talk mor about you than yourself</t>
+  </si>
+  <si>
+    <t>placeholer</t>
+  </si>
+  <si>
+    <t>I scheduled this appointment for next Monday</t>
+  </si>
+  <si>
+    <t>great way to know before hand where you are getting into, sometimes you thing "I am going to get the first thing that appears but I could end in a really diferent place than what you planned</t>
+  </si>
+  <si>
+    <t>really important, mental health is equal or more important than studies or work, if you are not mentaly health you cannot study or work</t>
+  </si>
+  <si>
+    <t>also, really important,ethics in tech make the difference between help someone and harm someone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I interviewed someone from Murphy USA, a gas copany, in this case we had the visit of the data and software engineering team, I asked a couple of questions about how is the company implementing math models or ML models in the context of AI </t>
   </si>
 </sst>
 </file>
@@ -3880,8 +3907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8515058B-4DE2-4DB6-8AD2-37BD43F2C8C4}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView topLeftCell="C6" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49:H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -4000,7 +4027,9 @@
       <c r="G11" s="7">
         <v>0.5</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.5">
       <c r="C12">
@@ -4042,7 +4071,9 @@
       <c r="G13" s="7">
         <v>0.5</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.5">
       <c r="C14" t="s">
@@ -4239,7 +4270,9 @@
       </c>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.5">
-      <c r="D30" s="69"/>
+      <c r="D30" s="69" t="s">
+        <v>362</v>
+      </c>
       <c r="E30" s="70"/>
       <c r="F30" s="70"/>
       <c r="G30" s="70"/>
@@ -4304,11 +4337,12 @@
       <c r="C38" t="s">
         <v>115</v>
       </c>
-      <c r="D38" t="str">
-        <f>IF(ISBLANK(A0_Plan!E13),"",A0_Plan!E13)</f>
-        <v>0_PP1_Planning Schedule</v>
-      </c>
-      <c r="E38" s="66"/>
+      <c r="D38" t="s">
+        <v>278</v>
+      </c>
+      <c r="E38" s="66" t="s">
+        <v>363</v>
+      </c>
       <c r="F38" s="67"/>
       <c r="G38" s="67"/>
       <c r="H38" s="68"/>
@@ -4317,11 +4351,12 @@
       <c r="C39" t="s">
         <v>116</v>
       </c>
-      <c r="D39" t="str">
-        <f>IF(ISBLANK(A0_Plan!E14),"",A0_Plan!E14)</f>
-        <v>17_P2_Resume</v>
-      </c>
-      <c r="E39" s="66"/>
+      <c r="D39" t="s">
+        <v>293</v>
+      </c>
+      <c r="E39" s="66" t="s">
+        <v>364</v>
+      </c>
       <c r="F39" s="67"/>
       <c r="G39" s="67"/>
       <c r="H39" s="68"/>
@@ -4330,11 +4365,12 @@
       <c r="C40" t="s">
         <v>117</v>
       </c>
-      <c r="D40" t="str">
-        <f>IF(ISBLANK(A0_Plan!E15),"",A0_Plan!E15)</f>
-        <v>31_D3_Design Your Life: Chap 1: Health, Work, Play, &amp; Love</v>
-      </c>
-      <c r="E40" s="24"/>
+      <c r="D40" t="s">
+        <v>276</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>365</v>
+      </c>
       <c r="F40" s="25"/>
       <c r="G40" s="25"/>
       <c r="H40" s="26"/>
@@ -4348,11 +4384,12 @@
       <c r="C42" t="s">
         <v>172</v>
       </c>
-      <c r="D42" t="str">
-        <f>IF(ISBLANK(A0_Plan!E17),"",A0_Plan!E17)</f>
-        <v>5_B5_Elevator Pitch: 5 Sentences</v>
-      </c>
-      <c r="E42" s="66"/>
+      <c r="D42" t="s">
+        <v>299</v>
+      </c>
+      <c r="E42" s="66" t="s">
+        <v>366</v>
+      </c>
       <c r="F42" s="67"/>
       <c r="G42" s="67"/>
       <c r="H42" s="68"/>
@@ -4361,11 +4398,12 @@
       <c r="C43" t="s">
         <v>173</v>
       </c>
-      <c r="D43" t="str">
-        <f>IF(ISBLANK(A0_Plan!E18),"",A0_Plan!E18)</f>
-        <v>32_D4_Design Your Life: Chap 2: Work/Life view/compass</v>
-      </c>
-      <c r="E43" s="21"/>
+      <c r="D43" t="s">
+        <v>296</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>367</v>
+      </c>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
       <c r="H43" s="23"/>
@@ -4374,11 +4412,12 @@
       <c r="C44" t="s">
         <v>174</v>
       </c>
-      <c r="D44" t="str">
-        <f>IF(ISBLANK(A0_Plan!E19),"",A0_Plan!E19)</f>
-        <v>9_S4_Completed 100% Handshake Profile</v>
-      </c>
-      <c r="E44" s="21"/>
+      <c r="D44" t="s">
+        <v>280</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>368</v>
+      </c>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
       <c r="H44" s="23"/>
@@ -4420,7 +4459,9 @@
       <c r="C49" t="s">
         <v>120</v>
       </c>
-      <c r="D49" s="66"/>
+      <c r="D49" s="66" t="s">
+        <v>314</v>
+      </c>
       <c r="E49" s="67"/>
       <c r="F49" s="67"/>
       <c r="G49" s="67"/>
@@ -4430,7 +4471,9 @@
       <c r="C50" t="s">
         <v>121</v>
       </c>
-      <c r="D50" s="66"/>
+      <c r="D50" s="66" t="s">
+        <v>315</v>
+      </c>
       <c r="E50" s="67"/>
       <c r="F50" s="67"/>
       <c r="G50" s="67"/>
@@ -4440,7 +4483,9 @@
       <c r="C51" t="s">
         <v>122</v>
       </c>
-      <c r="D51" s="66"/>
+      <c r="D51" s="66" t="s">
+        <v>348</v>
+      </c>
       <c r="E51" s="67"/>
       <c r="F51" s="67"/>
       <c r="G51" s="67"/>
@@ -4451,17 +4496,17 @@
     <protectedRange sqref="F11:H13" name="Week 1 Day Status"/>
   </protectedRanges>
   <mergeCells count="11">
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
     <mergeCell ref="E39:H39"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="D30:H33"/>
     <mergeCell ref="C36:H36"/>
     <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F13 F15:F17" xr:uid="{A2A76FCC-8F65-48BC-A8F4-A01273D51EE7}">
@@ -4481,7 +4526,7 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C6" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -4601,7 +4646,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.5">
@@ -5008,17 +5053,17 @@
     <protectedRange sqref="F11:H13" name="Week 1 Day Status"/>
   </protectedRanges>
   <mergeCells count="11">
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
     <mergeCell ref="E39:H39"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="D30:H33"/>
     <mergeCell ref="C36:H36"/>
     <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F13 F15:F17" xr:uid="{D1B2BB17-8A06-4144-A681-8A997469D79E}">
@@ -8617,9 +8662,9 @@
         <f>A6_Status!G11</f>
         <v>0.5</v>
       </c>
-      <c r="K53">
+      <c r="K53" t="str">
         <f>A6_Status!H11</f>
-        <v>0</v>
+        <v>https://github.com/AlejoAlegreBustos/Machine-learning-projects/blob/main/CSE%20300/professional%20reference.pdf</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.5">
@@ -8681,9 +8726,9 @@
         <f>A6_Status!G13</f>
         <v>0.5</v>
       </c>
-      <c r="K55">
+      <c r="K55" t="str">
         <f>A6_Status!H13</f>
-        <v>0</v>
+        <v>https://github.com/AlejoAlegreBustos/Machine-learning-projects/blob/main/CSE%20300/silver%20certification%20appointment.png</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.5">
@@ -8820,7 +8865,7 @@
       </c>
       <c r="K61" t="str">
         <f>A7_Status!H11</f>
-        <v xml:space="preserve">I interviewed Murphy USA, a gas copany, in this case we had the visit of the data and software engineering team, I asked a couple of questions about how is the company implementing math models or ML models in the context of AI </v>
+        <v xml:space="preserve">I interviewed someone from Murphy USA, a gas copany, in this case we had the visit of the data and software engineering team, I asked a couple of questions about how is the company implementing math models or ML models in the context of AI </v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.5">
@@ -9021,7 +9066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FD177B-405B-AB4F-9E6E-F065EEFB6CF8}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
+    <sheetView topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <selection activeCell="D49" sqref="D49:H50"/>
     </sheetView>
   </sheetViews>
@@ -9614,6 +9659,11 @@
     <protectedRange sqref="F11:H13" name="Week 1 Day Status"/>
   </protectedRanges>
   <mergeCells count="14">
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
     <mergeCell ref="D51:H51"/>
     <mergeCell ref="D30:H33"/>
     <mergeCell ref="C47:H47"/>
@@ -9623,11 +9673,6 @@
     <mergeCell ref="E40:H40"/>
     <mergeCell ref="E44:H44"/>
     <mergeCell ref="E43:H43"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F13 F15:F17" xr:uid="{F8BA5BF8-27F7-0145-ACE8-38CF1DEED6A9}">
@@ -9649,7 +9694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0960C3A-E59D-480B-888F-45205DBBA9E3}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <selection activeCell="D49" sqref="D49:H50"/>
     </sheetView>
   </sheetViews>
@@ -10236,12 +10281,6 @@
     <protectedRange sqref="F11:H13" name="Week 1 Day Status"/>
   </protectedRanges>
   <mergeCells count="13">
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="E44:H44"/>
     <mergeCell ref="E40:H40"/>
     <mergeCell ref="E39:H39"/>
     <mergeCell ref="C4:H4"/>
@@ -10249,6 +10288,12 @@
     <mergeCell ref="D30:H33"/>
     <mergeCell ref="C36:H36"/>
     <mergeCell ref="E38:H38"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="E44:H44"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F13 F15:F17" xr:uid="{0C4CAE71-73BA-45BA-B81A-F9DB73364F6C}">
@@ -10852,18 +10897,18 @@
     <protectedRange sqref="F11:H11 F13:H13 F12:G12" name="Week 1 Day Status"/>
   </protectedRanges>
   <mergeCells count="12">
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="D30:H33"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="E38:H38"/>
     <mergeCell ref="E42:H42"/>
     <mergeCell ref="C47:H47"/>
     <mergeCell ref="D49:H49"/>
     <mergeCell ref="D50:H50"/>
     <mergeCell ref="D51:H51"/>
     <mergeCell ref="E44:H44"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="D30:H33"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="E38:H38"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F13 F15:F17" xr:uid="{B26C00AE-C8F1-4A9E-BD78-2336D2567EF8}">
@@ -10882,8 +10927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E3BF9B-6B9F-4347-A3C9-CC5DD92EABEF}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49:H51"/>
+    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -11474,17 +11519,17 @@
     <protectedRange sqref="F11:H13" name="Week 1 Day Status"/>
   </protectedRanges>
   <mergeCells count="11">
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
     <mergeCell ref="E39:H39"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="D30:H33"/>
     <mergeCell ref="C36:H36"/>
     <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F13 F15:F17" xr:uid="{A4DED5BE-B352-4550-8DBB-9F1D1D8AB303}">
@@ -11504,7 +11549,7 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D17"/>
+      <selection activeCell="D49" sqref="D49:H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -12088,17 +12133,17 @@
     <protectedRange sqref="F11:H13 E40" name="Week 1 Day Status"/>
   </protectedRanges>
   <mergeCells count="11">
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
     <mergeCell ref="E39:H39"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="D30:H33"/>
     <mergeCell ref="C36:H36"/>
     <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F13 F15:F17" xr:uid="{F929D84E-5BAD-4824-868F-2008C632FB2D}">
